--- a/Clientes/PEI/Inventario de proceso 2022 PEI.xlsx
+++ b/Clientes/PEI/Inventario de proceso 2022 PEI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Clientes\PEI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutionsLatam/InteractSolutions/Clientes/PEI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB901A04-91D3-4AB5-AB2A-6B79D359C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{AB901A04-91D3-4AB5-AB2A-6B79D359C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2D5FAB-B43A-4762-8EF1-ECED99531FEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07F442F9-D1EF-484C-9D39-76E9C3BD6A66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07F442F9-D1EF-484C-9D39-76E9C3BD6A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -121,15 +121,6 @@
     <t>Inversiones</t>
   </si>
   <si>
-    <t>Riesgos
-Seguros
-Backoffice
-Gestión de activos
-Brigard urrutia
-Corficolombiana
-Contratación y compras</t>
-  </si>
-  <si>
     <t>Core</t>
   </si>
   <si>
@@ -172,15 +163,6 @@
     <t>Comercial</t>
   </si>
   <si>
-    <t>Riesgos
-Seguros
-Brigard urrutia
-Backoffice
-Gestión de activos
-Corficolombiana
-Contratación y compras</t>
-  </si>
-  <si>
     <t>R1-R2-P1-P2</t>
   </si>
   <si>
@@ -208,49 +190,24 @@
     <t>Proceso de sarlaft para vincular un arrendatario</t>
   </si>
   <si>
-    <t>Backoffice
-Corficolombiana</t>
-  </si>
-  <si>
     <t>R1-R2</t>
   </si>
   <si>
     <t>Gestión del riesgo para vinculación de un arrendatario</t>
   </si>
   <si>
-    <t>Riesgos
-Seguros
-Backoffice
-Comité de riesgo-seguro</t>
-  </si>
-  <si>
     <t>MD2</t>
   </si>
   <si>
     <t>Elaboración y firma de nuevos contratos de arrendamiento de espacios</t>
   </si>
   <si>
-    <t>Riesgos
-Seguros
-Brigard Urrutia
-Backoffice
-Gestión de activos
-Corficolombiana</t>
-  </si>
-  <si>
     <t>OT9-OT10</t>
   </si>
   <si>
     <t>Entrega y/o adecuación de espacios contratados</t>
   </si>
   <si>
-    <t>Riesgos
-Seguros
-Backoffice
-Gestión de activos
-Contratación y compras</t>
-  </si>
-  <si>
     <t>MD2-OT4-OT5-OT9-OT10</t>
   </si>
   <si>
@@ -258,17 +215,6 @@
   </si>
   <si>
     <t>Gestión comercial y de servicio con el operador espacializado</t>
-  </si>
-  <si>
-    <t>Riesgos
-Seguros
-Backoffice
-Comité de riesgo/seguro
-Corficolombiana
-Brigar urrutia
-Operador especializado
-Gestión de activos
-Contratación y compras</t>
   </si>
   <si>
     <t>MD1-MD2-MD3-SF1-SF2-SF3-OT4-OT5-OT8-OT9-OT10</t>
@@ -428,11 +374,6 @@
   </si>
   <si>
     <t>Implementación</t>
-  </si>
-  <si>
-    <t>impuestos
-Backofice
-Planeación financiera</t>
   </si>
   <si>
     <t>MD4-OT10</t>
@@ -792,6 +733,30 @@
   </si>
   <si>
     <t>SQL Query</t>
+  </si>
+  <si>
+    <t>RiesgosSegurosBackofficeGestión de activosBrigard urrutiaCorficolombianaContratación y compras</t>
+  </si>
+  <si>
+    <t>RiesgosSegurosBrigard urrutiaBackofficeGestión de activosCorficolombianaContratación y compras</t>
+  </si>
+  <si>
+    <t>BackofficeCorficolombiana</t>
+  </si>
+  <si>
+    <t>RiesgosSegurosBackofficeComité de riesgo-seguro</t>
+  </si>
+  <si>
+    <t>RiesgosSegurosBrigard UrrutiaBackofficeGestión de activosCorficolombiana</t>
+  </si>
+  <si>
+    <t>RiesgosSegurosBackofficeGestión de activosContratación y compras</t>
+  </si>
+  <si>
+    <t>RiesgosSegurosBackofficeComité de riesgo/seguroCorficolombianaBrigar urrutiaOperador especializadoGestión de activosContratación y compras</t>
+  </si>
+  <si>
+    <t>impuestosBackoficePlaneación financiera</t>
   </si>
 </sst>
 </file>
@@ -880,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -895,6 +860,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,19 +1182,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE1E80C-BF28-40CB-9059-6E9156A32BAA}">
   <dimension ref="A1:AM97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD46" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="AM52" sqref="AM52"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM83" sqref="AM83:AM97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="52.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="8"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="96.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1236,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1295,53 +1267,53 @@
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1366,28 +1338,28 @@
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="K2" s="5">
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5">
@@ -1420,22 +1392,16 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AM2" t="str">
-        <f>CONCATENATE(TEXT("SA.query(",0),TEXT("""SA8_BC_Homolog"",""insert into bc_inventario_procesos values (",0),A2,TEXT(",'",0),B2,TEXT("','",0),C2,TEXT("','",0),D2,TEXT("','",0),E2,TEXT("','",0),F2,TEXT("','",0),G2,TEXT("','",0),H2,TEXT("','",0),I2,TEXT("','",0),J2,TEXT("','",0),K2,TEXT("','",0),M2,TEXT("',",0),N2,TEXT(",'",0),O2,TEXT("',",0),P2,TEXT(",'",0),Q2,TEXT("',",0),R2,TEXT(",",0),S2,TEXT(",",0),T2,TEXT(",",0),U2,TEXT(",",0),V2,TEXT(",",0),W2,TEXT(",",0),X2,TEXT(",",0),Y2,TEXT(",",0),Z2,TEXT(",",0),AA2,TEXT(",",0),AB2,TEXT(",",0),AC2,TEXT(",",0),AD2,TEXT(",",0),AE2,TEXT(",",0),AF2,TEXT(",",0),AG2,TEXT(",",0),AH2,TEXT(",",0),AI2,TEXT(",",0),AJ2,TEXT(",",0),AK2,TEXT(")"").execute();",0))</f>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (1,'Adquisición de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','','Inversiones','Riesgos
-Seguros
-Backoffice
-Gestión de activos
-Brigard urrutia
-Corficolombiana
-Contratación y compras','8','Si',0.8,'O1-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10',,1,1,0.9,0.9,0.92,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A2,TEXT(",'",0),B2,TEXT("','",0),C2,TEXT("','",0),D2,TEXT("','",0),E2,TEXT("','",0),F2,TEXT("','",0),G2,TEXT("','",0),I2,TEXT("','",0),J2,TEXT("','",0),K2,TEXT("','",0),L2,TEXT("','",0),M2,TEXT("',",0),N2,TEXT(",'",0),O2,TEXT("',",0),P2,TEXT(",'",0),Q2,TEXT("','",0),R2,TEXT("',",0),S2,TEXT(",",0),T2,TEXT(",",0),U2,TEXT(",",0),V2,TEXT(",",0),W2,TEXT(",",0),AB2,TEXT("null,",0),AC2,TEXT("null,",0),AD2,TEXT("null,",0),AE2,TEXT("null,'",0),AF2,TEXT("','",0),X2,TEXT("','",0),H2,TEXT("','",0),AA2,TEXT("','",0),Z2,TEXT("','",0),Y2,TEXT("','",0),AG2,TEXT("','",0),AH2,TEXT("','",0),AI2,TEXT("','",0),AJ2,TEXT("',null",0),AK2,TEXT(")"").execute();",0))</f>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (1,'Adquisición de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','RiesgosSegurosBackofficeGestión de activosBrigard urrutiaCorficolombianaContratación y compras','8','Core','Si',0.8,'O1-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,0.9,0.9,0.92,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -1457,22 +1423,22 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="P3" s="5">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5">
@@ -1505,16 +1471,16 @@
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM66" si="0">CONCATENATE(TEXT("SA.query(",0),TEXT("""SA8_BC_Homolog"",""insert into bc_inventario_procesos values (",0),A3,TEXT(",'",0),B3,TEXT("','",0),C3,TEXT("','",0),D3,TEXT("','",0),E3,TEXT("','",0),F3,TEXT("','",0),G3,TEXT("','",0),H3,TEXT("','",0),I3,TEXT("','",0),J3,TEXT("','",0),K3,TEXT("','",0),M3,TEXT("',",0),N3,TEXT(",'",0),O3,TEXT("',",0),P3,TEXT(",'",0),Q3,TEXT("',",0),R3,TEXT(",",0),S3,TEXT(",",0),T3,TEXT(",",0),U3,TEXT(",",0),V3,TEXT(",",0),W3,TEXT(",",0),X3,TEXT(",",0),Y3,TEXT(",",0),Z3,TEXT(",",0),AA3,TEXT(",",0),AB3,TEXT(",",0),AC3,TEXT(",",0),AD3,TEXT(",",0),AE3,TEXT(",",0),AF3,TEXT(",",0),AG3,TEXT(",",0),AH3,TEXT(",",0),AI3,TEXT(",",0),AJ3,TEXT(",",0),AK3,TEXT(")"").execute();",0))</f>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (2,'Redeserrollo de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','','Inversiones','','','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10',,1,1,1,0,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM3:AM66" si="0">CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A3,TEXT(",'",0),B3,TEXT("','",0),C3,TEXT("','",0),D3,TEXT("','",0),E3,TEXT("','",0),F3,TEXT("','",0),G3,TEXT("','",0),I3,TEXT("','",0),J3,TEXT("','",0),K3,TEXT("','",0),L3,TEXT("','",0),M3,TEXT("',",0),N3,TEXT(",'",0),O3,TEXT("',",0),P3,TEXT(",'",0),Q3,TEXT("','",0),R3,TEXT("',",0),S3,TEXT(",",0),T3,TEXT(",",0),U3,TEXT(",",0),V3,TEXT(",",0),W3,TEXT(",",0),AB3,TEXT("null,",0),AC3,TEXT("null,",0),AD3,TEXT("null,",0),AE3,TEXT("null,'",0),AF3,TEXT("','",0),X3,TEXT("','",0),H3,TEXT("','",0),AA3,TEXT("','",0),Z3,TEXT("','",0),Y3,TEXT("','",0),AG3,TEXT("','",0),AH3,TEXT("','",0),AI3,TEXT("','",0),AJ3,TEXT("',null",0),AK3,TEXT(")"").execute();",0))</f>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (2,'Redeserrollo de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -1536,22 +1502,22 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="P4" s="5">
         <v>1</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -1585,15 +1551,15 @@
       <c r="AK4" s="5"/>
       <c r="AM4" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (3,'Reconversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','','Inversiones','','','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10',,1,1,1,0,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (3,'Reconversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -1615,22 +1581,22 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="P5" s="5">
         <v>1</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5">
@@ -1664,56 +1630,56 @@
       <c r="AK5" s="5"/>
       <c r="AM5" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (4,'Desinversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','','Inversiones','','','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10',,1,1,1,0,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (4,'Desinversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="K6" s="5">
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>1</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P6" s="5">
         <v>1</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5">
@@ -1747,58 +1713,52 @@
       <c r="AK6" s="5"/>
       <c r="AM6" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (5,'Arrendamiento de espacios vacantes','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial','Riesgos
-Seguros
-Brigard urrutia
-Backoffice
-Gestión de activos
-Corficolombiana
-Contratación y compras','8','Si',1,'R1-R2-P1-P2',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10',,1,1,0.9,0.9,0.98,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (5,'Arrendamiento de espacios vacantes','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBrigard urrutiaBackofficeGestión de activosCorficolombianaContratación y compras','8','Core','Si',1,'R1-R2-P1-P2',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.9,0.9,0.98,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
+      <c r="N7" s="7">
         <v>1</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P7" s="5">
         <v>1</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5">
@@ -1832,48 +1792,48 @@
       <c r="AK7" s="5"/>
       <c r="AM7" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (6,'Elaboración de Termsheet/ LOI en arrendatarios nuevos','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial','','1','',1,'R1-R2-P1-P2',1,'OT9',,1,0.9,1,1,0.975,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (6,'Elaboración de Termsheet/ LOI en arrendatarios nuevos','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','','1','Soporte','',1,'R1-R2-P1-P2',1,'OT9','',1,0.9,1,1,0.975,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5">
         <v>2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="5">
+      <c r="N8" s="7">
         <v>0.9</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -1911,48 +1871,48 @@
       <c r="AK8" s="5"/>
       <c r="AM8" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (7,'Solicitud de documentos vinculantes a arrendatarios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial','Backoffice','2','',0.9,'R1-R2-P1',0,'',,1,0.9,1,1,0.945,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (7,'Solicitud de documentos vinculantes a arrendatarios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','Backoffice','2','Soporte','',0.9,'R1-R2-P1',0,'','',1,0.9,1,1,0.945,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="K9" s="5">
         <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="N9" s="7">
         <v>0.8</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -1990,55 +1950,54 @@
       <c r="AK9" s="5"/>
       <c r="AM9" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (8,'Proceso de sarlaft para vincular un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial','Backoffice
-Corficolombiana','3','',0.8,'R1-R2',0,'',,1,0.9,1,1,0.915,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (8,'Proceso de sarlaft para vincular un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','BackofficeCorficolombiana','3','Soporte','',0.8,'R1-R2',0,'','',1,0.9,1,1,0.915,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="K10" s="5">
         <v>5</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="N10" s="7">
         <v>0.9</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" s="5">
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5">
@@ -2072,57 +2031,54 @@
       <c r="AK10" s="5"/>
       <c r="AM10" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (9,'Gestión del riesgo para vinculación de un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial','Riesgos
-Seguros
-Backoffice
-Comité de riesgo-seguro','5','',0.9,'R1-R2-P1',1,'MD2',,1,0.9,1,1,0.945,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (9,'Gestión del riesgo para vinculación de un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBackofficeComité de riesgo-seguro','5','Soporte','',0.9,'R1-R2-P1',1,'MD2','',1,0.9,1,1,0.945,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="K11" s="5">
         <v>7</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="5">
+      <c r="N11" s="7">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P11" s="5">
         <v>1</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5">
@@ -2156,23 +2112,18 @@
       <c r="AK11" s="5"/>
       <c r="AM11" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (10,'Elaboración y firma de nuevos contratos de arrendamiento de espacios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial','Riesgos
-Seguros
-Brigard Urrutia
-Backoffice
-Gestión de activos
-Corficolombiana','7','',1,'R1-R2-P1-P2',1,'OT9-OT10',,1,0.9,1,1,0.975,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (10,'Elaboración y firma de nuevos contratos de arrendamiento de espacios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBrigard UrrutiaBackofficeGestión de activosCorficolombiana','7','Soporte','',1,'R1-R2-P1-P2',1,'OT9-OT10','',1,0.9,1,1,0.975,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>25</v>
@@ -2186,31 +2137,31 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="K12" s="5">
         <v>6</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="5">
+        <v>33</v>
+      </c>
+      <c r="N12" s="7">
         <v>0.9</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P12" s="5">
         <v>1</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5">
@@ -2244,22 +2195,18 @@
       <c r="AK12" s="5"/>
       <c r="AM12" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (11,'Entrega y/o adecuación de espacios contratados','Gestión del área vacante','Gestión del portafolio inmobiliario','NA','','NA','','Comercial','Riesgos
-Seguros
-Backoffice
-Gestión de activos
-Contratación y compras','6','No',0.9,'R1-R2-P1',1,'MD2-OT4-OT5-OT9-OT10',,1,1,0.9,0.9,0.95,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (11,'Entrega y/o adecuación de espacios contratados','Gestión del área vacante','Gestión del portafolio inmobiliario','NA','','NA','Comercial','RiesgosSegurosBackofficeGestión de activosContratación y compras','6','Core','No',0.9,'R1-R2-P1',1,'MD2-OT4-OT5-OT9-OT10','',1,1,0.9,0.9,0.95,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>25</v>
@@ -2273,31 +2220,31 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="K13" s="5">
         <v>10</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="5">
+        <v>33</v>
+      </c>
+      <c r="N13" s="7">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P13" s="5">
         <v>1</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5">
@@ -2331,58 +2278,50 @@
       <c r="AK13" s="5"/>
       <c r="AM13" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (12,'Seguimiento y control al ciclo comercial y de servicio al arrendatario por parte de operadores especializados','Gestión comercial y de servicio con el operador espacializado','Gestión del portafolio inmobiliario','NA','','NA','','Comercial','Riesgos
-Seguros
-Backoffice
-Comité de riesgo/seguro
-Corficolombiana
-Brigar urrutia
-Operador especializado
-Gestión de activos
-Contratación y compras','10','No',1,'R1-R2-P1-P2',1,'MD1-MD2-MD3-SF1-SF2-SF3-OT4-OT5-OT8-OT9-OT10',,1,1,0,0,0.8,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (12,'Seguimiento y control al ciclo comercial y de servicio al arrendatario por parte de operadores especializados','Gestión comercial y de servicio con el operador espacializado','Gestión del portafolio inmobiliario','NA','','NA','Comercial','RiesgosSegurosBackofficeComité de riesgo/seguroCorficolombianaBrigar urrutiaOperador especializadoGestión de activosContratación y compras','10','Core','No',1,'R1-R2-P1-P2',1,'MD1-MD2-MD3-SF1-SF2-SF3-OT4-OT5-OT8-OT9-OT10','',1,1,0,0,0.8,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K14" s="5">
         <v>10</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="5">
+        <v>33</v>
+      </c>
+      <c r="N14" s="7">
         <v>0.7</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P14" s="5">
         <v>0</v>
@@ -2420,19 +2359,19 @@
       <c r="AK14" s="5"/>
       <c r="AM14" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (13,'Atención a solicitudes de arrendatarios vinculados','Modelo de servicio','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','','Comercial
-Gestión de activos','Pei AM','10','No',0.7,'R2',0,'',,1,1,1,1,0.91,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (13,'Atención a solicitudes de arrendatarios vinculados','Modelo de servicio','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial
+Gestión de activos','Pei AM','10','Core','No',0.7,'R2',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>25</v>
@@ -2446,21 +2385,21 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="N15" s="7">
         <v>0.7</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P15" s="5">
         <v>0</v>
@@ -2498,19 +2437,19 @@
       <c r="AK15" s="5"/>
       <c r="AM15" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (14,'Fidelización de arrendatarios','Modelo de servicio','Gestión del portafolio inmobiliario','NA','','NA','','Comercial
-Gestión de activos','Pei AM','','',0.7,'R2',0,'',,1,1,0.8,0.8,0.87,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (14,'Fidelización de arrendatarios','Modelo de servicio','Gestión del portafolio inmobiliario','NA','','NA','Comercial
+Gestión de activos','Pei AM','','Core','',0.7,'R2',0,'','',1,1,0.8,0.8,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>25</v>
@@ -2524,25 +2463,25 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5">
+      <c r="N16" s="7">
         <v>0.8</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P16" s="5">
         <v>1</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5">
@@ -2576,18 +2515,18 @@
       <c r="AK16" s="5"/>
       <c r="AM16" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (15,'Gestión de otro síes de contratos de arrendamiento','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Comercial','','','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (15,'Gestión de otro síes de contratos de arrendamiento','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>25</v>
@@ -2601,25 +2540,25 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="5">
+      <c r="N17" s="7">
         <v>0.8</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P17" s="5">
         <v>1</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5">
@@ -2653,18 +2592,18 @@
       <c r="AK17" s="5"/>
       <c r="AM17" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (16,'Retención y renovación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Comercial','','','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (16,'Retención y renovación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>25</v>
@@ -2678,25 +2617,25 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="5">
+      <c r="N18" s="7">
         <v>0.7</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P18" s="5">
         <v>1</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5">
@@ -2730,18 +2669,18 @@
       <c r="AK18" s="5"/>
       <c r="AM18" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (17,'Renovación de pólizas','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Seguros','','','',0.7,'R2',1,'MD2',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (17,'Renovación de pólizas','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>25</v>
@@ -2755,25 +2694,25 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="5">
+      <c r="N19" s="7">
         <v>0.8</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P19" s="5">
         <v>1</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5">
@@ -2807,19 +2746,19 @@
       <c r="AK19" s="5"/>
       <c r="AM19" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (18,'Renovación de alternativas Pei AM','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Riesgos
-Seguros','','','',0.8,'R2-P1',1,'MD2',,1,1,0.4,0.4,0.82,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (18,'Renovación de alternativas Pei AM','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Riesgos
+Seguros','','','Soporte','',0.8,'R2-P1',1,'MD2','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>25</v>
@@ -2833,25 +2772,25 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="5">
+      <c r="N20" s="7">
         <v>0.7</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P20" s="5">
         <v>1</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5">
@@ -2885,18 +2824,18 @@
       <c r="AK20" s="5"/>
       <c r="AM20" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (19,'Facturación','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Cobranza','','','',0.7,'R2',1,'MD3-MD5-OT9-OT10',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (19,'Facturación','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>25</v>
@@ -2910,25 +2849,25 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="5">
+      <c r="N21" s="7">
         <v>0.7</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P21" s="5">
         <v>1</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5">
@@ -2962,18 +2901,18 @@
       <c r="AK21" s="5"/>
       <c r="AM21" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (20,'Comité de cartera','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Comercial','','','',0.7,'R2',1,'MD3-MD5-OT9-OT10',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (20,'Comité de cartera','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>25</v>
@@ -2987,25 +2926,25 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5">
+      <c r="N22" s="7">
         <v>0.7</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P22" s="5">
         <v>1</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5">
@@ -3039,18 +2978,18 @@
       <c r="AK22" s="5"/>
       <c r="AM22" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (21,'Recaudo','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Cobranza','','','',0.7,'R2',1,'MD3-MD5-OT9-OT10',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (21,'Recaudo','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>25</v>
@@ -3064,25 +3003,25 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="5">
+      <c r="N23" s="7">
         <v>0.8</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P23" s="5">
         <v>1</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5">
@@ -3116,52 +3055,52 @@
       <c r="AK23" s="5"/>
       <c r="AM23" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (22,'Cobranza','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Cobranza','','','',0.8,'R2-P1',1,'MD3-MD5-OT9-OT10',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (22,'Cobranza','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.8,'R2-P1',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="5">
+        <v>33</v>
+      </c>
+      <c r="N24" s="7">
         <v>0.8</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P24" s="5">
         <v>1</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5">
@@ -3195,18 +3134,18 @@
       <c r="AK24" s="5"/>
       <c r="AM24" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (23,'Insolvencia','Procesos recurrentes','Gestión del portafolio inmobiliario','AS IS','','TO BE - Preliminar','','Legal','','','No',0.8,'R2-P1',1,'MD2-MD3-MD5-OT9-OT10',,1,1,0.8,0.8,0.9,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (23,'Insolvencia','Procesos recurrentes','Gestión del portafolio inmobiliario','AS IS','','TO BE - Preliminar','Legal','','','Soporte','No',0.8,'R2-P1',1,'MD2-MD3-MD5-OT9-OT10','',1,1,0.8,0.8,0.9,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>25</v>
@@ -3220,25 +3159,25 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M25" s="5"/>
-      <c r="N25" s="5">
+      <c r="N25" s="7">
         <v>0.7</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P25" s="5">
         <v>1</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5">
@@ -3272,18 +3211,18 @@
       <c r="AK25" s="5"/>
       <c r="AM25" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (24,'Aviso de circunstancia, aviso de siniestros a aseguradoras','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Seguros','','','',0.7,'R2',1,'MD2-OT9-OT10',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (24,'Aviso de circunstancia, aviso de siniestros a aseguradoras','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>25</v>
@@ -3297,25 +3236,25 @@
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
+      <c r="N26" s="7">
         <v>0.7</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P26" s="5">
         <v>1</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5">
@@ -3349,18 +3288,18 @@
       <c r="AK26" s="5"/>
       <c r="AM26" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (25,'Recobro de siniestros','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Seguros','','','',0.7,'R2',1,'MD2-OT9-OT10',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (25,'Recobro de siniestros','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>25</v>
@@ -3374,25 +3313,25 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="N27" s="7">
         <v>0.8</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P27" s="5">
         <v>1</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5">
@@ -3426,18 +3365,18 @@
       <c r="AK27" s="5"/>
       <c r="AM27" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (26,'Terminación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Comercial','','','',0.8,'R2-P1',1,'MD1-OT9-OT10',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (26,'Terminación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>25</v>
@@ -3451,25 +3390,25 @@
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M28" s="5"/>
-      <c r="N28" s="5">
+      <c r="N28" s="7">
         <v>0.8</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P28" s="5">
         <v>1</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5">
@@ -3503,19 +3442,19 @@
       <c r="AK28" s="5"/>
       <c r="AM28" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (27,'Recepción de espacios','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','','Comercial
-Gestión de activos','','','',0.8,'R2-P1',1,'MD1-SF3-OT4-OT9-OT10',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (27,'Recepción de espacios','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial
+Gestión de activos','','','Soporte','',0.8,'R2-P1',1,'MD1-SF3-OT4-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>25</v>
@@ -3529,13 +3468,13 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5">
+      <c r="N29" s="7">
         <v>0</v>
       </c>
       <c r="O29" s="5"/>
@@ -3543,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5">
@@ -3577,18 +3516,18 @@
       <c r="AK29" s="5"/>
       <c r="AM29" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (28,'Planeación y ejecución de avaluos de recostrucción','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Gestión de activos','','','',0,'',1,'SF3-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (28,'Planeación y ejecución de avaluos de recostrucción','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>25</v>
@@ -3602,13 +3541,13 @@
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="N30" s="7">
         <v>0</v>
       </c>
       <c r="O30" s="5"/>
@@ -3616,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5">
@@ -3650,18 +3589,18 @@
       <c r="AK30" s="5"/>
       <c r="AM30" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (29,'Renovación de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Gestión de activos','','','',0,'',1,'SF3-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (29,'Renovación de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
@@ -3675,13 +3614,13 @@
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5">
+      <c r="N31" s="7">
         <v>0</v>
       </c>
       <c r="O31" s="5"/>
@@ -3689,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5">
@@ -3723,18 +3662,18 @@
       <c r="AK31" s="5"/>
       <c r="AM31" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (30,'Emisión y pago de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Seguros','','','',0,'',1,'SF3-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (30,'Emisión y pago de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>25</v>
@@ -3748,13 +3687,13 @@
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5">
+      <c r="N32" s="7">
         <v>0</v>
       </c>
       <c r="O32" s="5"/>
@@ -3762,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5">
@@ -3796,18 +3735,18 @@
       <c r="AK32" s="5"/>
       <c r="AM32" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (31,'Aviso de circustancias y siniestreos de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Seguros','','','',0,'',1,'SF3-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (31,'Aviso de circustancias y siniestreos de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>25</v>
@@ -3821,13 +3760,13 @@
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5">
+      <c r="N33" s="7">
         <v>0</v>
       </c>
       <c r="O33" s="5"/>
@@ -3835,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5">
@@ -3869,18 +3808,18 @@
       <c r="AK33" s="5"/>
       <c r="AM33" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (32,'Recobro de siniestros de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Seguros','','','',0,'',1,'SF3-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (32,'Recobro de siniestros de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>25</v>
@@ -3894,13 +3833,13 @@
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5">
+      <c r="N34" s="7">
         <v>0</v>
       </c>
       <c r="O34" s="5"/>
@@ -3908,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5">
@@ -3942,18 +3881,18 @@
       <c r="AK34" s="5"/>
       <c r="AM34" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (33,'Diseño, programación y ejecución de visitas técnicas','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','','Gestión de activos','','','',0,'',1,'SF3-OT5-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (33,'Diseño, programación y ejecución de visitas técnicas','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>25</v>
@@ -3967,13 +3906,13 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5">
+      <c r="N35" s="7">
         <v>0</v>
       </c>
       <c r="O35" s="5"/>
@@ -3981,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5">
@@ -4015,18 +3954,18 @@
       <c r="AK35" s="5"/>
       <c r="AM35" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (34,'Ejecución de proyectos de: Capex, R&amp;M y TIS','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','','Gestión de activos','','','',0,'',1,'SF3-OT5-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (34,'Ejecución de proyectos de: Capex, R&amp;M y TIS','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>25</v>
@@ -4040,13 +3979,13 @@
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5">
+      <c r="N36" s="7">
         <v>0</v>
       </c>
       <c r="O36" s="5"/>
@@ -4054,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5">
@@ -4088,19 +4027,19 @@
       <c r="AK36" s="5"/>
       <c r="AM36" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (35,'Actualización y modernización de activos inmobiliarios','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','','Gestión de activos
-Inversiones','','','',0,'',1,'SF3-OT5-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (35,'Actualización y modernización de activos inmobiliarios','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos
+Inversiones','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>25</v>
@@ -4114,13 +4053,13 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5">
+      <c r="N37" s="7">
         <v>0</v>
       </c>
       <c r="O37" s="5"/>
@@ -4152,18 +4091,18 @@
       <c r="AK37" s="5"/>
       <c r="AM37" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (36,'Gestión de copropiedades ','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','','Gestión de activos','','','',0,'',0,'',,,,,,0,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (36,'Gestión de copropiedades ','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>25</v>
@@ -4177,13 +4116,13 @@
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5">
+      <c r="N38" s="7">
         <v>0</v>
       </c>
       <c r="O38" s="5"/>
@@ -4191,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5">
@@ -4225,46 +4164,46 @@
       <c r="AK38" s="5"/>
       <c r="AM38" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (37,'Elaboración de presupuesto para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Planeación financiera','','','',0,'',1,'SF3-OT5-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (37,'Elaboración de presupuesto para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Planeación financiera','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="K39" s="5">
         <v>5</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="5">
+        <v>29</v>
+      </c>
+      <c r="N39" s="7">
         <v>0</v>
       </c>
       <c r="O39" s="5"/>
@@ -4272,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="5">
@@ -4306,20 +4245,18 @@
       <c r="AK39" s="5"/>
       <c r="AM39" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (38,'Gestión de impuestos para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','TO BE - Preliminar','','Implementación','','Gestión de activos','impuestos
-Backofice
-Planeación financiera','5','Si',0,'',1,'MD4-OT10',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (38,'Gestión de impuestos para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','TO BE - Preliminar','','Implementación','Gestión de activos','impuestosBackoficePlaneación financiera','5','Soporte','Si',0,'',1,'MD4-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>25</v>
@@ -4333,13 +4270,13 @@
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5">
+      <c r="N40" s="7">
         <v>0</v>
       </c>
       <c r="O40" s="5"/>
@@ -4347,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5">
@@ -4381,18 +4318,18 @@
       <c r="AK40" s="5"/>
       <c r="AM40" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (39,'Planeación y gestión de avaluos comerciales para activos inmobiales','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','','Planeación financiera','','','',0,'',1,'OT5-OT9-OT10',,1,0.5,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (39,'Planeación y gestión de avaluos comerciales para activos inmobiales','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Planeación financiera','','','','',0,'',1,'OT5-OT9-OT10','',1,0.5,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>25</v>
@@ -4406,13 +4343,13 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5">
+      <c r="N41" s="7">
         <v>0</v>
       </c>
       <c r="O41" s="5"/>
@@ -4452,23 +4389,23 @@
       <c r="AK41" s="5"/>
       <c r="AM41" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (40,'Comité de seguimiento inmobiliario','Gestión inmobiliaria del portafolio','Gestión del portafolio inmobiliario','NA','','NA','','Comercial
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (40,'Comité de seguimiento inmobiliario','Gestión inmobiliaria del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Comercial
 Gestión de activos
-Planeación financiera','','','',0,'',1,'',,1,1,1,1,0.7,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+Planeación financiera','','','','',0,'',1,'','',1,1,1,1,0.7,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>26</v>
@@ -4479,17 +4416,17 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5">
+      <c r="N42" s="7">
         <v>0.8</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P42" s="5">
         <v>0</v>
@@ -4527,21 +4464,21 @@
       <c r="AK42" s="5"/>
       <c r="AM42" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (41,'Emisiones de capital privado','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','','Planeación financiera','','','',0.8,'R3-P1',0,'',,1,1,0.2,0.2,0.78,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (41,'Emisiones de capital privado','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.8,'R3-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>26</v>
@@ -4552,17 +4489,17 @@
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5">
+      <c r="N43" s="7">
         <v>0.8</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P43" s="5">
         <v>0</v>
@@ -4600,21 +4537,21 @@
       <c r="AK43" s="5"/>
       <c r="AM43" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (42,'Emisiones de capital público','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','','Planeación financiera','','','',0.8,'R3-P1',0,'',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (42,'Emisiones de capital público','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.8,'R3-P1',0,'','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>26</v>
@@ -4625,17 +4562,17 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5">
+      <c r="N44" s="7">
         <v>0.7</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P44" s="5">
         <v>0</v>
@@ -4673,50 +4610,50 @@
       <c r="AK44" s="5"/>
       <c r="AM44" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (43,'Seguimiento y control a emisiones realizadas','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','','Planeación financiera','','','',0.7,'R3',0,'',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (43,'Seguimiento y control a emisiones realizadas','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.7,'R3',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K45" s="5">
         <v>2</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="5">
+        <v>33</v>
+      </c>
+      <c r="N45" s="7">
         <v>0.7</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P45" s="5">
         <v>0</v>
@@ -4754,50 +4691,50 @@
       <c r="AK45" s="5"/>
       <c r="AM45" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (44,'Prospección de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','','Inversionistas','Comunicaciones','2','No',0.7,'R3',0,'',,1,1,1,1,0.91,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (44,'Prospección de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','Inversionistas','Comunicaciones','2','Core','No',0.7,'R3',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K46" s="5">
         <v>8</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N46" s="5">
+        <v>33</v>
+      </c>
+      <c r="N46" s="7">
         <v>0.7</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P46" s="5">
         <v>0</v>
@@ -4835,21 +4772,21 @@
       <c r="AK46" s="5"/>
       <c r="AM46" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (45,'Atención de solicitudes de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','','Inversionistas','Pei AM, Fiducoldex','8','No',0.7,'R3',0,'',,1,1,1,1,0.91,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (45,'Atención de solicitudes de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','Inversionistas','Pei AM, Fiducoldex','8','Core','No',0.7,'R3',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>26</v>
@@ -4860,17 +4797,17 @@
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5">
+      <c r="N47" s="7">
         <v>0.7</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P47" s="5">
         <v>0</v>
@@ -4908,21 +4845,21 @@
       <c r="AK47" s="5"/>
       <c r="AM47" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (46,'Fidelización de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','NA','','NA','','Inversionistas','','','',0.7,'R3',0,'',,1,0.8,0.9,0.9,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (46,'Fidelización de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','NA','','NA','Inversionistas','','','','',0.7,'R3',0,'','',1,0.8,0.9,0.9,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>26</v>
@@ -4933,13 +4870,13 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5">
+      <c r="N48" s="7">
         <v>0</v>
       </c>
       <c r="O48" s="5"/>
@@ -4979,21 +4916,21 @@
       <c r="AK48" s="5"/>
       <c r="AM48" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (47,'Cupos de crédito','Gestión de endeudamiento financiero','Gestión de estructura de capital de los vehículos','NA','','NA','','Planeación financiera','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (47,'Cupos de crédito','Gestión de endeudamiento financiero','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>26</v>
@@ -5004,17 +4941,17 @@
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5">
+      <c r="N49" s="7">
         <v>0.7</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P49" s="5">
         <v>0</v>
@@ -5052,21 +4989,21 @@
       <c r="AK49" s="5"/>
       <c r="AM49" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (48,'Formulación y planeación de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.7,'S1',0,'',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (48,'Formulación y planeación de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>26</v>
@@ -5077,17 +5014,17 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5">
+      <c r="N50" s="7">
         <v>0.7</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P50" s="5">
         <v>0</v>
@@ -5125,21 +5062,21 @@
       <c r="AK50" s="5"/>
       <c r="AM50" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (49,'Gestión y seguimiento de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.7,'S1',0,'',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (49,'Gestión y seguimiento de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>61</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>26</v>
@@ -5150,17 +5087,17 @@
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5">
+      <c r="N51" s="7">
         <v>0.7</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P51" s="5">
         <v>0</v>
@@ -5198,21 +5135,21 @@
       <c r="AK51" s="5"/>
       <c r="AM51" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (61,'Cierre y materialización operativa de las iniciativas','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.7,'S1',0,'',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (61,'Cierre y materialización operativa de las iniciativas','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>26</v>
@@ -5221,19 +5158,18 @@
       <c r="G52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5">
+      <c r="N52" s="7">
         <v>0.8</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P52" s="5">
         <v>0</v>
@@ -5271,21 +5207,21 @@
       <c r="AK52" s="5"/>
       <c r="AM52" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (62,'Gestión regalutoria','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.8,'S1-P1',0,'',,1,1,0.4,0.4,0.82,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (62,'Gestión regalutoria','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>63</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>26</v>
@@ -5296,17 +5232,17 @@
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="5">
+      <c r="N53" s="7">
         <v>0.8</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P53" s="5">
         <v>0</v>
@@ -5344,21 +5280,21 @@
       <c r="AK53" s="5"/>
       <c r="AM53" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (63,'Gestión legal','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.8,'S1-P1',0,'',,1,1,0.4,0.4,0.82,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (63,'Gestión legal','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>64</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>26</v>
@@ -5369,17 +5305,17 @@
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5">
+      <c r="N54" s="7">
         <v>0.7</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P54" s="5">
         <v>0</v>
@@ -5417,21 +5353,21 @@
       <c r="AK54" s="5"/>
       <c r="AM54" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (64,'Gestión de riesgos estratégicos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Riesgos','','','',0.7,'S1',0,'',,1,1,0.3,0.3,0.77,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (64,'Gestión de riesgos estratégicos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Riesgos','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>65</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>26</v>
@@ -5442,17 +5378,17 @@
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5">
+      <c r="N55" s="7">
         <v>0.7</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P55" s="5">
         <v>0</v>
@@ -5490,21 +5426,21 @@
       <c r="AK55" s="5"/>
       <c r="AM55" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (65,'Gestión de riesgos operativos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Riesgos','','','',0.7,'S1',0,'',,1,1,0.3,0.3,0.77,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (65,'Gestión de riesgos operativos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Riesgos','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>66</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>26</v>
@@ -5515,17 +5451,17 @@
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="5">
+      <c r="N56" s="7">
         <v>0.8</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P56" s="5">
         <v>0</v>
@@ -5563,21 +5499,21 @@
       <c r="AK56" s="5"/>
       <c r="AM56" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (66,'Modelo de relacionamiento con aliados estratégicos','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.8,'S1-P1',0,'',,1,1,0.2,0.2,0.78,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (66,'Modelo de relacionamiento con aliados estratégicos','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>67</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>26</v>
@@ -5588,17 +5524,17 @@
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="5">
+      <c r="N57" s="7">
         <v>0.8</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P57" s="5">
         <v>0</v>
@@ -5636,21 +5572,21 @@
       <c r="AK57" s="5"/>
       <c r="AM57" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (67,'SAGRILAFT','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.8,'S1-P1',0,'',,1,1,0.4,0.4,0.82,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (67,'SAGRILAFT','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>68</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>26</v>
@@ -5661,17 +5597,17 @@
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5">
+      <c r="N58" s="7">
         <v>0.8</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P58" s="5">
         <v>0</v>
@@ -5709,21 +5645,21 @@
       <c r="AK58" s="5"/>
       <c r="AM58" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (68,'Programa de Transparencia y Ética empresarial','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.8,'S1-P1',0,'',,1,1,0.4,0.4,0.82,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (68,'Programa de Transparencia y Ética empresarial','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>69</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>26</v>
@@ -5734,17 +5670,17 @@
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5">
+      <c r="N59" s="7">
         <v>0.7</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P59" s="5">
         <v>0</v>
@@ -5782,21 +5718,21 @@
       <c r="AK59" s="5"/>
       <c r="AM59" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (69,'Aditoría de procesos','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Auditoria','','','',0.7,'S1',0,'',,1,1,0.3,0.3,0.77,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (69,'Aditoría de procesos','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>70</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>26</v>
@@ -5807,17 +5743,17 @@
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5">
+      <c r="N60" s="7">
         <v>0.7</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P60" s="5">
         <v>0</v>
@@ -5855,21 +5791,21 @@
       <c r="AK60" s="5"/>
       <c r="AM60" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (70,'Aditoría de Operadores Especializados y Administradores','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Auditoria','','','',0.7,'S1',0,'',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (70,'Aditoría de Operadores Especializados y Administradores','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>71</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>26</v>
@@ -5880,17 +5816,17 @@
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5">
+      <c r="N61" s="7">
         <v>0.7</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P61" s="5">
         <v>0</v>
@@ -5928,21 +5864,21 @@
       <c r="AK61" s="5"/>
       <c r="AM61" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (71,'Auditoría de gestión de cumplimiento','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Auditoria','','','',0.7,'S1',0,'',,1,1,0.5,0.5,0.81,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (71,'Auditoría de gestión de cumplimiento','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>72</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>26</v>
@@ -5953,17 +5889,17 @@
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5">
+      <c r="N62" s="7">
         <v>0.8</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P62" s="5">
         <v>0</v>
@@ -6001,21 +5937,21 @@
       <c r="AK62" s="5"/>
       <c r="AM62" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (72,'Planeación, ejecución y conclusiones de comités de los vehículos administrados','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Presidencia','','','',0.8,'S1-P1',0,'',,1,1,0.2,0.2,0.78,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (72,'Planeación, ejecución y conclusiones de comités de los vehículos administrados','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Presidencia','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>73</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>26</v>
@@ -6026,17 +5962,17 @@
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5">
+      <c r="N63" s="7">
         <v>0.7</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P63" s="5">
         <v>0</v>
@@ -6074,21 +6010,21 @@
       <c r="AK63" s="5"/>
       <c r="AM63" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (73,'Planeación, ejecución y conclusiones de comités corporativos','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Pei AM','','','',0.7,'S1',0,'',,1,1,0.2,0.2,0.75,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (73,'Planeación, ejecución y conclusiones de comités corporativos','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Pei AM','','','','',0.7,'S1',0,'','',1,1,0.2,0.2,0.75,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>74</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>26</v>
@@ -6099,17 +6035,17 @@
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5">
+      <c r="N64" s="7">
         <v>0.8</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P64" s="5">
         <v>0</v>
@@ -6147,21 +6083,21 @@
       <c r="AK64" s="5"/>
       <c r="AM64" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (74,'Gestión de políticas y normas corporativas','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','','Legal','','','',0.8,'S1-P1',0,'',,1,1,0.2,0.2,0.78,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (74,'Gestión de políticas y normas corporativas','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>75</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>26</v>
@@ -6172,13 +6108,13 @@
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="5">
+      <c r="N65" s="7">
         <v>0</v>
       </c>
       <c r="O65" s="5"/>
@@ -6218,21 +6154,21 @@
       <c r="AK65" s="5"/>
       <c r="AM65" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (75,'Formulacion y planeación de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','','Estrategia y nuevos negocios','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (75,'Formulacion y planeación de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>76</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>26</v>
@@ -6243,13 +6179,13 @@
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="5">
+      <c r="N66" s="7">
         <v>0</v>
       </c>
       <c r="O66" s="5"/>
@@ -6289,21 +6225,21 @@
       <c r="AK66" s="5"/>
       <c r="AM66" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (76,'Ejecución y seguimiento de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','','Estrategia y nuevos negocios','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (76,'Ejecución y seguimiento de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>77</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>26</v>
@@ -6314,13 +6250,13 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5">
+      <c r="N67" s="7">
         <v>0</v>
       </c>
       <c r="O67" s="5"/>
@@ -6359,22 +6295,22 @@
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5"/>
       <c r="AM67" t="str">
-        <f t="shared" ref="AM67:AM97" si="1">CONCATENATE(TEXT("SA.query(",0),TEXT("""SA8_BC_Homolog"",""insert into bc_inventario_procesos values (",0),A67,TEXT(",'",0),B67,TEXT("','",0),C67,TEXT("','",0),D67,TEXT("','",0),E67,TEXT("','",0),F67,TEXT("','",0),G67,TEXT("','",0),H67,TEXT("','",0),I67,TEXT("','",0),J67,TEXT("','",0),K67,TEXT("','",0),M67,TEXT("',",0),N67,TEXT(",'",0),O67,TEXT("',",0),P67,TEXT(",'",0),Q67,TEXT("',",0),R67,TEXT(",",0),S67,TEXT(",",0),T67,TEXT(",",0),U67,TEXT(",",0),V67,TEXT(",",0),W67,TEXT(",",0),X67,TEXT(",",0),Y67,TEXT(",",0),Z67,TEXT(",",0),AA67,TEXT(",",0),AB67,TEXT(",",0),AC67,TEXT(",",0),AD67,TEXT(",",0),AE67,TEXT(",",0),AF67,TEXT(",",0),AG67,TEXT(",",0),AH67,TEXT(",",0),AI67,TEXT(",",0),AJ67,TEXT(",",0),AK67,TEXT(")"").execute();",0))</f>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (77,'Evaluación y cierre de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','','Estrategia y nuevos negocios','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM67:AM97" si="1">CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A67,TEXT(",'",0),B67,TEXT("','",0),C67,TEXT("','",0),D67,TEXT("','",0),E67,TEXT("','",0),F67,TEXT("','",0),G67,TEXT("','",0),I67,TEXT("','",0),J67,TEXT("','",0),K67,TEXT("','",0),L67,TEXT("','",0),M67,TEXT("',",0),N67,TEXT(",'",0),O67,TEXT("',",0),P67,TEXT(",'",0),Q67,TEXT("','",0),R67,TEXT("',",0),S67,TEXT(",",0),T67,TEXT(",",0),U67,TEXT(",",0),V67,TEXT(",",0),W67,TEXT(",",0),AB67,TEXT("null,",0),AC67,TEXT("null,",0),AD67,TEXT("null,",0),AE67,TEXT("null,'",0),AF67,TEXT("','",0),X67,TEXT("','",0),H67,TEXT("','",0),AA67,TEXT("','",0),Z67,TEXT("','",0),Y67,TEXT("','",0),AG67,TEXT("','",0),AH67,TEXT("','",0),AI67,TEXT("','",0),AJ67,TEXT("',null",0),AK67,TEXT(")"").execute();",0))</f>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (77,'Evaluación y cierre de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>78</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>26</v>
@@ -6385,13 +6321,13 @@
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="5">
+      <c r="N68" s="7">
         <v>0</v>
       </c>
       <c r="O68" s="5"/>
@@ -6431,21 +6367,21 @@
       <c r="AK68" s="5"/>
       <c r="AM68" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (78,'Planeación, programación y ejecución de capacitaciones a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (78,'Planeación, programación y ejecución de capacitaciones a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>26</v>
@@ -6456,13 +6392,13 @@
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="5">
+      <c r="N69" s="7">
         <v>0</v>
       </c>
       <c r="O69" s="5"/>
@@ -6502,48 +6438,48 @@
       <c r="AK69" s="5"/>
       <c r="AM69" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (79,'Diseño, publicación, ejecución y ajustes al Programa de bienestar','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0,'',0,'',,1,1,0.2,0.2,0.54,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (79,'Diseño, publicación, ejecución y ajustes al Programa de bienestar','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',1,1,0.2,0.2,0.54,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>80</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N70" s="5">
+        <v>33</v>
+      </c>
+      <c r="N70" s="7">
         <v>0.9</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P70" s="5">
         <v>0</v>
@@ -6581,21 +6517,21 @@
       <c r="AK70" s="5"/>
       <c r="AM70" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (80,'Reclutamiento, selección, contratación e inducción a trabajadores Pei AM','Gestión del talento','Gestión corporativa','AS IS','','TO BE - Preliminar','','Talento Humano','Pei AM','','No',0.9,'P1-G1-G2',0,'',,1,1,0.8,0.8,0.93,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (80,'Reclutamiento, selección, contratación e inducción a trabajadores Pei AM','Gestión del talento','Gestión corporativa','AS IS','','TO BE - Preliminar','Talento Humano','Pei AM','','Soporte','No',0.9,'P1-G1-G2',0,'','',1,1,0.8,0.8,0.93,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>81</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>26</v>
@@ -6606,17 +6542,17 @@
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="5">
+      <c r="N71" s="7">
         <v>0.7</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P71" s="5">
         <v>0</v>
@@ -6654,21 +6590,21 @@
       <c r="AK71" s="5"/>
       <c r="AM71" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (81,'Desvinculación de trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0.7,'P1',0,'',,1,0.3,0.5,0.5,0.635,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (81,'Desvinculación de trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'P1',0,'','',1,0.3,0.5,0.5,0.635,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>82</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>26</v>
@@ -6679,17 +6615,17 @@
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="5">
+      <c r="N72" s="7">
         <v>0.9</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P72" s="5">
         <v>0</v>
@@ -6727,21 +6663,21 @@
       <c r="AK72" s="5"/>
       <c r="AM72" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (82,'Gestión de la compensación a trabajadores de Pei AM ','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0.9,'P1-G1-G2',0,'',,1,1,0.6,0.6,0.89,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (82,'Gestión de la compensación a trabajadores de Pei AM ','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.9,'P1-G1-G2',0,'','',1,1,0.6,0.6,0.89,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>83</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>26</v>
@@ -6752,17 +6688,17 @@
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="5">
+      <c r="N73" s="7">
         <v>0.8</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="P73" s="5">
         <v>0</v>
@@ -6800,21 +6736,21 @@
       <c r="AK73" s="5"/>
       <c r="AM73" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (83,'Liquidación y pago de nómina a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0.8,'G1-G2',0,'',,1,1,0.5,0.5,0.84,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (83,'Liquidación y pago de nómina a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.8,'G1-G2',0,'','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>84</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>26</v>
@@ -6825,17 +6761,17 @@
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="5">
+      <c r="N74" s="7">
         <v>0.7</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P74" s="5">
         <v>0</v>
@@ -6873,21 +6809,21 @@
       <c r="AK74" s="5"/>
       <c r="AM74" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (84,'Evalución de desempeño a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0.7,'G1',0,'',,1,1,0.3,0.3,0.77,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (84,'Evalución de desempeño a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>85</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>26</v>
@@ -6898,17 +6834,17 @@
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="5">
+      <c r="N75" s="7">
         <v>0.7</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P75" s="5">
         <v>0</v>
@@ -6946,21 +6882,21 @@
       <c r="AK75" s="5"/>
       <c r="AM75" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (85,'Diseño, publicación, ejecución y ajustes al Plan carrera','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0.7,'G1',0,'',,1,1,0.1,0.1,0.73,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (85,'Diseño, publicación, ejecución y ajustes al Plan carrera','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G1',0,'','',1,1,0.1,0.1,0.73,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>86</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>26</v>
@@ -6971,17 +6907,17 @@
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="5">
+      <c r="N76" s="7">
         <v>0.7</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P76" s="5">
         <v>0</v>
@@ -7019,21 +6955,21 @@
       <c r="AK76" s="5"/>
       <c r="AM76" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (86,'Diseño, publicación, ejecuión y ajustes al programa de sucección y altos potenciales','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0.7,'G2',0,'',,1,1,0.1,0.1,0.73,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (86,'Diseño, publicación, ejecuión y ajustes al programa de sucección y altos potenciales','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G2',0,'','',1,1,0.1,0.1,0.73,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>87</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>26</v>
@@ -7044,13 +6980,13 @@
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="5">
+      <c r="N77" s="7">
         <v>0</v>
       </c>
       <c r="O77" s="5"/>
@@ -7090,21 +7026,21 @@
       <c r="AK77" s="5"/>
       <c r="AM77" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (87,'Planeación, ejecución y cierre de procesos de Seguridad y Salud en el Trabajo','Gestión del talento','Gestión corporativa','NA','','NA','','Talento Humano','','','',0,'',0,'',,0.5,0.5,0.3,0.3,0.31,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (87,'Planeación, ejecución y cierre de procesos de Seguridad y Salud en el Trabajo','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,0.5,0.3,0.3,0.31,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>88</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>26</v>
@@ -7115,13 +7051,13 @@
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="5">
+      <c r="N78" s="7">
         <v>0</v>
       </c>
       <c r="O78" s="5"/>
@@ -7161,21 +7097,21 @@
       <c r="AK78" s="5"/>
       <c r="AM78" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (88,'Preparación, recolección, analisis y presentación de resultados de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','','Talento Humano','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (88,'Preparación, recolección, analisis y presentación de resultados de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>89</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>26</v>
@@ -7186,13 +7122,13 @@
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="5">
+      <c r="N79" s="7">
         <v>0</v>
       </c>
       <c r="O79" s="5"/>
@@ -7232,21 +7168,21 @@
       <c r="AK79" s="5"/>
       <c r="AM79" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (89,'Planeación, ejecución y cierre de iniciativas de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','','Talento Humano','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (89,'Planeación, ejecución y cierre de iniciativas de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>90</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>26</v>
@@ -7257,13 +7193,13 @@
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="5">
+      <c r="N80" s="7">
         <v>0</v>
       </c>
       <c r="O80" s="5"/>
@@ -7295,21 +7231,21 @@
       <c r="AK80" s="5"/>
       <c r="AM80" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (90,'Infraestrcutura tecnológica','Innovación Digital','Gestión corporativa','NA','','NA','','Innovación Digital','','','',0,'',0,'',,,,,,0,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (90,'Infraestrcutura tecnológica','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>91</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>26</v>
@@ -7320,13 +7256,13 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="5">
+      <c r="N81" s="7">
         <v>0</v>
       </c>
       <c r="O81" s="5"/>
@@ -7358,21 +7294,21 @@
       <c r="AK81" s="5"/>
       <c r="AM81" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (91,'Gestión de datos','Innovación Digital','Gestión corporativa','NA','','NA','','Innovación Digital','','','',0,'',0,'',,,,,,0,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (91,'Gestión de datos','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>92</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>26</v>
@@ -7383,13 +7319,13 @@
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5">
+      <c r="N82" s="7">
         <v>0</v>
       </c>
       <c r="O82" s="5"/>
@@ -7421,21 +7357,21 @@
       <c r="AK82" s="5"/>
       <c r="AM82" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (92,'Gestión de aplicaciones','Innovación Digital','Gestión corporativa','NA','','NA','','Innovación Digital','','','',0,'',0,'',,,,,,0,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (92,'Gestión de aplicaciones','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>93</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>26</v>
@@ -7446,13 +7382,13 @@
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5">
+      <c r="N83" s="7">
         <v>0</v>
       </c>
       <c r="O83" s="5"/>
@@ -7492,38 +7428,38 @@
       <c r="AK83" s="5"/>
       <c r="AM83" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (93,'Formulación, planeación, ejecución seguimiento y cierre de iniciativas de Transformación Digital','Innovación Digital','Gestión corporativa','NA','','NA','','Innovación Digital','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (93,'Formulación, planeación, ejecución seguimiento y cierre de iniciativas de Transformación Digital','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>94</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="5">
+      <c r="N84" s="7">
         <v>0</v>
       </c>
       <c r="O84" s="5"/>
@@ -7563,38 +7499,38 @@
       <c r="AK84" s="5"/>
       <c r="AM84" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (94,'Comunicaciones a grupos priorizados de Pei AM y Vehículos','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','','Comunicaciones','','','',0,'',0,'',,0.5,0.8,0.5,0.5,0.425,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (94,'Comunicaciones a grupos priorizados de Pei AM y Vehículos','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','Comunicaciones','','','','',0,'',0,'','',0.5,0.8,0.5,0.5,0.425,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>95</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
-      <c r="N85" s="5">
+      <c r="N85" s="7">
         <v>0</v>
       </c>
       <c r="O85" s="5"/>
@@ -7634,38 +7570,38 @@
       <c r="AK85" s="5"/>
       <c r="AM85" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (95,'Planeación, ejecución y cierre de eventos a grupos priorizados','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','','Comunicaciones','','','',0,'',0,'',,0.5,0.8,0.5,0.5,0.425,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (95,'Planeación, ejecución y cierre de eventos a grupos priorizados','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','Comunicaciones','','','','',0,'',0,'','',0.5,0.8,0.5,0.5,0.425,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>96</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="5">
+      <c r="N86" s="7">
         <v>0</v>
       </c>
       <c r="O86" s="5"/>
@@ -7705,38 +7641,38 @@
       <c r="AK86" s="5"/>
       <c r="AM86" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (96,'Creación, actualización o mejora de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','','Procesos','','','',0,'',0,'',,0.5,1,0.5,0.5,0.475,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (96,'Creación, actualización o mejora de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','Procesos','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>97</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="5">
+      <c r="N87" s="7">
         <v>0</v>
       </c>
       <c r="O87" s="5"/>
@@ -7776,21 +7712,21 @@
       <c r="AK87" s="5"/>
       <c r="AM87" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (97,'Suspención de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','','Procesos','','','',0,'',0,'',,0.5,0.5,0.5,0.5,0.35,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (97,'Suspención de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','Procesos','','','','',0,'',0,'','',0.5,0.5,0.5,0.5,0.35,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>98</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>26</v>
@@ -7801,13 +7737,13 @@
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="5">
+      <c r="N88" s="7">
         <v>0</v>
       </c>
       <c r="O88" s="5"/>
@@ -7847,21 +7783,21 @@
       <c r="AK88" s="5"/>
       <c r="AM88" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (98,'Actualización y soporte a la herramienta de BPMs de Pei AM','Gestión de Procesos','Gestión corporativa','NA','','NA','','Procesos','','','',0,'',0,'',,0.5,0.7,0.5,0.5,0.4,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (98,'Actualización y soporte a la herramienta de BPMs de Pei AM','Gestión de Procesos','Gestión corporativa','NA','','NA','Procesos','','','','',0,'',0,'','',0.5,0.7,0.5,0.5,0.4,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>99</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>26</v>
@@ -7872,13 +7808,13 @@
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="5">
+      <c r="N89" s="7">
         <v>0</v>
       </c>
       <c r="O89" s="5"/>
@@ -7918,21 +7854,21 @@
       <c r="AK89" s="5"/>
       <c r="AM89" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (99,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','','Planeación financiera','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (99,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>100</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>26</v>
@@ -7943,13 +7879,13 @@
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="5">
+      <c r="N90" s="7">
         <v>0</v>
       </c>
       <c r="O90" s="5"/>
@@ -7989,21 +7925,21 @@
       <c r="AK90" s="5"/>
       <c r="AM90" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (100,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','','Planeación financiera','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (100,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>101</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>26</v>
@@ -8014,17 +7950,17 @@
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="5">
+      <c r="N91" s="7">
         <v>0.9</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P91" s="5">
         <v>0</v>
@@ -8062,21 +7998,21 @@
       <c r="AK91" s="5"/>
       <c r="AM91" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (101,'Gestión de proveedores','Contratación y compras','Gestión corporativa','NA','','NA','','Contratación y compras','','','',0.9,'O1 -O2 - P1',0,'',,1,1,0.5,0.5,0.87,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (101,'Gestión de proveedores','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>102</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>26</v>
@@ -8087,17 +8023,17 @@
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="5">
+      <c r="N92" s="7">
         <v>0.9</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P92" s="5">
         <v>0</v>
@@ -8135,21 +8071,21 @@
       <c r="AK92" s="5"/>
       <c r="AM92" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (102,'Gestión de contratación y compras','Contratación y compras','Gestión corporativa','NA','','NA','','Contratación y compras','','','',0.9,'O1 -O2 - P1',0,'',,1,1,0.5,0.5,0.87,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (102,'Gestión de contratación y compras','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>103</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>26</v>
@@ -8160,17 +8096,17 @@
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="5">
+      <c r="N93" s="7">
         <v>0.9</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P93" s="5">
         <v>0</v>
@@ -8208,21 +8144,21 @@
       <c r="AK93" s="5"/>
       <c r="AM93" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (103,'Actualización y soporte a la herramienta de proveedores de Pei AM','Contratación y compras','Gestión corporativa','NA','','NA','','Contratación y compras','','','',0.9,'O1 -O2 - P1',0,'',,1,1,0.5,0.5,0.87,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (103,'Actualización y soporte a la herramienta de proveedores de Pei AM','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>104</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>26</v>
@@ -8233,13 +8169,13 @@
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="5">
+      <c r="N94" s="7">
         <v>0</v>
       </c>
       <c r="O94" s="5"/>
@@ -8279,21 +8215,21 @@
       <c r="AK94" s="5"/>
       <c r="AM94" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (104,'Cierre contable','Gestión contable','Gestión corporativa','NA','','NA','','Contabilidad','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (104,'Cierre contable','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>105</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>26</v>
@@ -8304,13 +8240,13 @@
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="5">
+      <c r="N95" s="7">
         <v>0</v>
       </c>
       <c r="O95" s="5"/>
@@ -8350,21 +8286,21 @@
       <c r="AK95" s="5"/>
       <c r="AM95" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (105,'Cuentas por cobrar','Gestión contable','Gestión corporativa','NA','','NA','','Contabilidad','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (105,'Cuentas por cobrar','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>106</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>26</v>
@@ -8375,13 +8311,13 @@
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="5">
+      <c r="N96" s="7">
         <v>0</v>
       </c>
       <c r="O96" s="5"/>
@@ -8421,21 +8357,21 @@
       <c r="AK96" s="5"/>
       <c r="AM96" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (106,'Cuentas por pagar','Gestión contable','Gestión corporativa','NA','','NA','','Contabilidad','','','',0,'',0,'',,1,1,0.5,0.5,0.6,,,,,,,,,,,,,,)").execute();</v>
-      </c>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (106,'Cuentas por pagar','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>107</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>26</v>
@@ -8446,17 +8382,17 @@
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="5">
+      <c r="N97" s="7">
         <v>0.7</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P97" s="5">
         <v>0</v>
@@ -8494,7 +8430,7 @@
       <c r="AK97" s="5"/>
       <c r="AM97" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("SA8_BC_Homolog","insert into bc_inventario_procesos values (107,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','','Backoffice','','','',0.7,'P1',0,'',,1,0.5,0.2,0.2,0.625,,,,,,,,,,,,,,)").execute();</v>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (107,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
       </c>
     </row>
   </sheetData>

--- a/Clientes/PEI/Inventario de proceso 2022 PEI.xlsx
+++ b/Clientes/PEI/Inventario de proceso 2022 PEI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfc74bb699e9f6c9/Documents/GitHub/InteractSolutionsLatam/InteractSolutions/Clientes/PEI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Clientes\PEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{AB901A04-91D3-4AB5-AB2A-6B79D359C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2D5FAB-B43A-4762-8EF1-ECED99531FEE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93BDDDC-7F62-4EE0-B8D5-CD4B7B5DF1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07F442F9-D1EF-484C-9D39-76E9C3BD6A66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F442F9-D1EF-484C-9D39-76E9C3BD6A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>impuestosBackoficePlaneación financiera</t>
+  </si>
+  <si>
+    <t>respuesta_encuesta_as_is</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -840,12 +843,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -865,6 +879,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,23 +1197,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE1E80C-BF28-40CB-9059-6E9156A32BAA}">
-  <dimension ref="A1:AM97"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM83" sqref="AM83:AM97"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO105" sqref="AO105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="8"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="96.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="8"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+    <col min="41" max="41" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,12 +1327,18 @@
       <c r="AK1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AL1" s="2"/>
+      <c r="AL1" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="AM1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1391,12 +1416,12 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-      <c r="AM2" t="str">
-        <f>CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A2,TEXT(",'",0),B2,TEXT("','",0),C2,TEXT("','",0),D2,TEXT("','",0),E2,TEXT("','",0),F2,TEXT("','",0),G2,TEXT("','",0),I2,TEXT("','",0),J2,TEXT("','",0),K2,TEXT("','",0),L2,TEXT("','",0),M2,TEXT("',",0),N2,TEXT(",'",0),O2,TEXT("',",0),P2,TEXT(",'",0),Q2,TEXT("','",0),R2,TEXT("',",0),S2,TEXT(",",0),T2,TEXT(",",0),U2,TEXT(",",0),V2,TEXT(",",0),W2,TEXT(",",0),AB2,TEXT("null,",0),AC2,TEXT("null,",0),AD2,TEXT("null,",0),AE2,TEXT("null,'",0),AF2,TEXT("','",0),X2,TEXT("','",0),H2,TEXT("','",0),AA2,TEXT("','",0),Z2,TEXT("','",0),Y2,TEXT("','",0),AG2,TEXT("','",0),AH2,TEXT("','",0),AI2,TEXT("','",0),AJ2,TEXT("',null",0),AK2,TEXT(")"").execute();",0))</f>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (1,'Adquisición de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','RiesgosSegurosBackofficeGestión de activosBrigard urrutiaCorficolombianaContratación y compras','8','Core','Si',0.8,'O1-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,0.9,0.9,0.92,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO2" t="str">
+        <f>CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A2,TEXT(",'",0),B2,TEXT("','",0),C2,TEXT("','",0),D2,TEXT("','",0),E2,TEXT("','",0),F2,TEXT("','",0),G2,TEXT("','",0),I2,TEXT("','",0),J2,TEXT("','",0),K2,TEXT("','",0),L2,TEXT("','",0),M2,TEXT("',",0),N2,TEXT(",'",0),O2,TEXT("',",0),P2,TEXT(",'",0),Q2,TEXT("','",0),R2,TEXT("',",0),S2,TEXT(",",0),T2,TEXT(",",0),U2,TEXT(",",0),V2,TEXT(",",0),W2,TEXT(",",0),AB2,TEXT("null,",0),AC2,TEXT("null,",0),AD2,TEXT("null,",0),AE2,TEXT("null,'",0),AF2,TEXT("','",0),X2,TEXT("','",0),H2,TEXT("','",0),AA2,TEXT("','",0),Z2,TEXT("','",0),Y2,TEXT("','",0),AG2,TEXT("','",0),AH2,TEXT("','",0),AI2,TEXT("','",0),AJ2,TEXT("',null",0),AK2,TEXT(",null",0),AL2,TEXT(",null",0),AM2,TEXT(")"").execute();",0))</f>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (1,'Adquisición de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','RiesgosSegurosBackofficeGestión de activosBrigard urrutiaCorficolombianaContratación y compras','8','Core','Si',0.8,'O1-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,0.9,0.9,0.92,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1470,12 +1495,12 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-      <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM66" si="0">CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A3,TEXT(",'",0),B3,TEXT("','",0),C3,TEXT("','",0),D3,TEXT("','",0),E3,TEXT("','",0),F3,TEXT("','",0),G3,TEXT("','",0),I3,TEXT("','",0),J3,TEXT("','",0),K3,TEXT("','",0),L3,TEXT("','",0),M3,TEXT("',",0),N3,TEXT(",'",0),O3,TEXT("',",0),P3,TEXT(",'",0),Q3,TEXT("','",0),R3,TEXT("',",0),S3,TEXT(",",0),T3,TEXT(",",0),U3,TEXT(",",0),V3,TEXT(",",0),W3,TEXT(",",0),AB3,TEXT("null,",0),AC3,TEXT("null,",0),AD3,TEXT("null,",0),AE3,TEXT("null,'",0),AF3,TEXT("','",0),X3,TEXT("','",0),H3,TEXT("','",0),AA3,TEXT("','",0),Z3,TEXT("','",0),Y3,TEXT("','",0),AG3,TEXT("','",0),AH3,TEXT("','",0),AI3,TEXT("','",0),AJ3,TEXT("',null",0),AK3,TEXT(")"").execute();",0))</f>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (2,'Redeserrollo de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO3" t="str">
+        <f t="shared" ref="AO3:AO66" si="0">CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A3,TEXT(",'",0),B3,TEXT("','",0),C3,TEXT("','",0),D3,TEXT("','",0),E3,TEXT("','",0),F3,TEXT("','",0),G3,TEXT("','",0),I3,TEXT("','",0),J3,TEXT("','",0),K3,TEXT("','",0),L3,TEXT("','",0),M3,TEXT("',",0),N3,TEXT(",'",0),O3,TEXT("',",0),P3,TEXT(",'",0),Q3,TEXT("','",0),R3,TEXT("',",0),S3,TEXT(",",0),T3,TEXT(",",0),U3,TEXT(",",0),V3,TEXT(",",0),W3,TEXT(",",0),AB3,TEXT("null,",0),AC3,TEXT("null,",0),AD3,TEXT("null,",0),AE3,TEXT("null,'",0),AF3,TEXT("','",0),X3,TEXT("','",0),H3,TEXT("','",0),AA3,TEXT("','",0),Z3,TEXT("','",0),Y3,TEXT("','",0),AG3,TEXT("','",0),AH3,TEXT("','",0),AI3,TEXT("','",0),AJ3,TEXT("',null",0),AK3,TEXT(",null",0),AL3,TEXT(",null",0),AM3,TEXT(")"").execute();",0))</f>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (2,'Redeserrollo de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1549,12 +1574,12 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-      <c r="AM4" t="str">
+      <c r="AO4" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (3,'Reconversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (3,'Reconversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1628,12 +1653,12 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
-      <c r="AM5" t="str">
+      <c r="AO5" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (4,'Desinversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (4,'Desinversión de activos inmobiliarios','Gestión de inversiones del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Inversiones','','','Core','No',0.8,'O2-P1',1,'MD1-MD2-MD4-SF3-OT1-OT3-OT5-OT9-OT10','',1,1,1,0,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1711,12 +1736,12 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AM6" t="str">
+      <c r="AO6" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (5,'Arrendamiento de espacios vacantes','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBrigard urrutiaBackofficeGestión de activosCorficolombianaContratación y compras','8','Core','Si',1,'R1-R2-P1-P2',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.9,0.9,0.98,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (5,'Arrendamiento de espacios vacantes','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBrigard urrutiaBackofficeGestión de activosCorficolombianaContratación y compras','8','Core','Si',1,'R1-R2-P1-P2',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.9,0.9,0.98,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1790,12 +1815,12 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
-      <c r="AM7" t="str">
+      <c r="AO7" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (6,'Elaboración de Termsheet/ LOI en arrendatarios nuevos','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','','1','Soporte','',1,'R1-R2-P1-P2',1,'OT9','',1,0.9,1,1,0.975,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (6,'Elaboración de Termsheet/ LOI en arrendatarios nuevos','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','','1','Soporte','',1,'R1-R2-P1-P2',1,'OT9','',1,0.9,1,1,0.975,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1869,12 +1894,12 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-      <c r="AM8" t="str">
+      <c r="AO8" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (7,'Solicitud de documentos vinculantes a arrendatarios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','Backoffice','2','Soporte','',0.9,'R1-R2-P1',0,'','',1,0.9,1,1,0.945,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (7,'Solicitud de documentos vinculantes a arrendatarios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','Backoffice','2','Soporte','',0.9,'R1-R2-P1',0,'','',1,0.9,1,1,0.945,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1948,12 +1973,12 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AM9" t="str">
+      <c r="AO9" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (8,'Proceso de sarlaft para vincular un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','BackofficeCorficolombiana','3','Soporte','',0.8,'R1-R2',0,'','',1,0.9,1,1,0.915,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (8,'Proceso de sarlaft para vincular un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','BackofficeCorficolombiana','3','Soporte','',0.8,'R1-R2',0,'','',1,0.9,1,1,0.915,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2029,12 +2054,12 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-      <c r="AM10" t="str">
+      <c r="AO10" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (9,'Gestión del riesgo para vinculación de un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBackofficeComité de riesgo-seguro','5','Soporte','',0.9,'R1-R2-P1',1,'MD2','',1,0.9,1,1,0.945,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (9,'Gestión del riesgo para vinculación de un arrendatario','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBackofficeComité de riesgo-seguro','5','Soporte','',0.9,'R1-R2-P1',1,'MD2','',1,0.9,1,1,0.945,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2110,12 +2135,12 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AM11" t="str">
+      <c r="AO11" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (10,'Elaboración y firma de nuevos contratos de arrendamiento de espacios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBrigard UrrutiaBackofficeGestión de activosCorficolombiana','7','Soporte','',1,'R1-R2-P1-P2',1,'OT9-OT10','',1,0.9,1,1,0.975,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (10,'Elaboración y firma de nuevos contratos de arrendamiento de espacios','Gestión del área vacante','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial','RiesgosSegurosBrigard UrrutiaBackofficeGestión de activosCorficolombiana','7','Soporte','',1,'R1-R2-P1-P2',1,'OT9-OT10','',1,0.9,1,1,0.975,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2193,12 +2218,12 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-      <c r="AM12" t="str">
+      <c r="AO12" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (11,'Entrega y/o adecuación de espacios contratados','Gestión del área vacante','Gestión del portafolio inmobiliario','NA','','NA','Comercial','RiesgosSegurosBackofficeGestión de activosContratación y compras','6','Core','No',0.9,'R1-R2-P1',1,'MD2-OT4-OT5-OT9-OT10','',1,1,0.9,0.9,0.95,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (11,'Entrega y/o adecuación de espacios contratados','Gestión del área vacante','Gestión del portafolio inmobiliario','NA','','NA','Comercial','RiesgosSegurosBackofficeGestión de activosContratación y compras','6','Core','No',0.9,'R1-R2-P1',1,'MD2-OT4-OT5-OT9-OT10','',1,1,0.9,0.9,0.95,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2276,12 +2301,12 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-      <c r="AM13" t="str">
+      <c r="AO13" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (12,'Seguimiento y control al ciclo comercial y de servicio al arrendatario por parte de operadores especializados','Gestión comercial y de servicio con el operador espacializado','Gestión del portafolio inmobiliario','NA','','NA','Comercial','RiesgosSegurosBackofficeComité de riesgo/seguroCorficolombianaBrigar urrutiaOperador especializadoGestión de activosContratación y compras','10','Core','No',1,'R1-R2-P1-P2',1,'MD1-MD2-MD3-SF1-SF2-SF3-OT4-OT5-OT8-OT9-OT10','',1,1,0,0,0.8,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (12,'Seguimiento y control al ciclo comercial y de servicio al arrendatario por parte de operadores especializados','Gestión comercial y de servicio con el operador espacializado','Gestión del portafolio inmobiliario','NA','','NA','Comercial','RiesgosSegurosBackofficeComité de riesgo/seguroCorficolombianaBrigar urrutiaOperador especializadoGestión de activosContratación y compras','10','Core','No',1,'R1-R2-P1-P2',1,'MD1-MD2-MD3-SF1-SF2-SF3-OT4-OT5-OT8-OT9-OT10','',1,1,0,0,0.8,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2357,13 +2382,13 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-      <c r="AM14" t="str">
+      <c r="AO14" t="str">
         <f t="shared" si="0"/>
         <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (13,'Atención a solicitudes de arrendatarios vinculados','Modelo de servicio','Gestión del portafolio inmobiliario','TO BE - Actualizado','','Socialización','Comercial
-Gestión de activos','Pei AM','10','Core','No',0.7,'R2',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+Gestión de activos','Pei AM','10','Core','No',0.7,'R2',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2435,13 +2460,13 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-      <c r="AM15" t="str">
+      <c r="AO15" t="str">
         <f t="shared" si="0"/>
         <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (14,'Fidelización de arrendatarios','Modelo de servicio','Gestión del portafolio inmobiliario','NA','','NA','Comercial
-Gestión de activos','Pei AM','','Core','',0.7,'R2',0,'','',1,1,0.8,0.8,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+Gestión de activos','Pei AM','','Core','',0.7,'R2',0,'','',1,1,0.8,0.8,0.87,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2513,12 +2538,12 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-      <c r="AM16" t="str">
+      <c r="AO16" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (15,'Gestión de otro síes de contratos de arrendamiento','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (15,'Gestión de otro síes de contratos de arrendamiento','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2590,12 +2615,12 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-      <c r="AM17" t="str">
+      <c r="AO17" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (16,'Retención y renovación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (16,'Retención y renovación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-MD2-OT1-OT4-OT5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2667,12 +2692,12 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-      <c r="AM18" t="str">
+      <c r="AO18" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (17,'Renovación de pólizas','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (17,'Renovación de pólizas','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2744,13 +2769,13 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-      <c r="AM19" t="str">
+      <c r="AO19" t="str">
         <f t="shared" si="0"/>
         <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (18,'Renovación de alternativas Pei AM','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Riesgos
-Seguros','','','Soporte','',0.8,'R2-P1',1,'MD2','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+Seguros','','','Soporte','',0.8,'R2-P1',1,'MD2','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2822,12 +2847,12 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-      <c r="AM20" t="str">
+      <c r="AO20" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (19,'Facturación','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (19,'Facturación','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2899,12 +2924,12 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-      <c r="AM21" t="str">
+      <c r="AO21" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (20,'Comité de cartera','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (20,'Comité de cartera','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2976,12 +3001,12 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-      <c r="AM22" t="str">
+      <c r="AO22" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (21,'Recaudo','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (21,'Recaudo','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.7,'R2',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3053,12 +3078,12 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-      <c r="AM23" t="str">
+      <c r="AO23" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (22,'Cobranza','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.8,'R2-P1',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (22,'Cobranza','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Cobranza','','','Soporte','',0.8,'R2-P1',1,'MD3-MD5-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3132,12 +3157,12 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-      <c r="AM24" t="str">
+      <c r="AO24" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (23,'Insolvencia','Procesos recurrentes','Gestión del portafolio inmobiliario','AS IS','','TO BE - Preliminar','Legal','','','Soporte','No',0.8,'R2-P1',1,'MD2-MD3-MD5-OT9-OT10','',1,1,0.8,0.8,0.9,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (23,'Insolvencia','Procesos recurrentes','Gestión del portafolio inmobiliario','AS IS','','TO BE - Preliminar','Legal','','','Soporte','No',0.8,'R2-P1',1,'MD2-MD3-MD5-OT9-OT10','',1,1,0.8,0.8,0.9,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3209,12 +3234,12 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-      <c r="AM25" t="str">
+      <c r="AO25" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (24,'Aviso de circunstancia, aviso de siniestros a aseguradoras','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (24,'Aviso de circunstancia, aviso de siniestros a aseguradoras','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3286,12 +3311,12 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-      <c r="AM26" t="str">
+      <c r="AO26" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (25,'Recobro de siniestros','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (25,'Recobro de siniestros','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','Soporte','',0.7,'R2',1,'MD2-OT9-OT10','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3363,12 +3388,12 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-      <c r="AM27" t="str">
+      <c r="AO27" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (26,'Terminación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (26,'Terminación de contratos','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial','','','Soporte','',0.8,'R2-P1',1,'MD1-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3440,13 +3465,13 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-      <c r="AM28" t="str">
+      <c r="AO28" t="str">
         <f t="shared" si="0"/>
         <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (27,'Recepción de espacios','Procesos recurrentes','Gestión del portafolio inmobiliario','NA','','NA','Comercial
-Gestión de activos','','','Soporte','',0.8,'R2-P1',1,'MD1-SF3-OT4-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+Gestión de activos','','','Soporte','',0.8,'R2-P1',1,'MD1-SF3-OT4-OT9-OT10','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3514,12 +3539,12 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-      <c r="AM29" t="str">
+      <c r="AO29" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (28,'Planeación y ejecución de avaluos de recostrucción','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (28,'Planeación y ejecución de avaluos de recostrucción','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3587,12 +3612,12 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-      <c r="AM30" t="str">
+      <c r="AO30" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (29,'Renovación de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (29,'Renovación de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3660,12 +3685,12 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-      <c r="AM31" t="str">
+      <c r="AO31" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (30,'Emisión y pago de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (30,'Emisión y pago de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3733,12 +3758,12 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-      <c r="AM32" t="str">
+      <c r="AO32" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (31,'Aviso de circustancias y siniestreos de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (31,'Aviso de circustancias y siniestreos de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3806,12 +3831,12 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-      <c r="AM33" t="str">
+      <c r="AO33" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (32,'Recobro de siniestros de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (32,'Recobro de siniestros de pólizas de activos inmobiliarios','Gestión del riesgo en los activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Seguros','','','','',0,'',1,'SF3-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3879,12 +3904,12 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-      <c r="AM34" t="str">
+      <c r="AO34" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (33,'Diseño, programación y ejecución de visitas técnicas','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (33,'Diseño, programación y ejecución de visitas técnicas','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3952,12 +3977,12 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-      <c r="AM35" t="str">
+      <c r="AO35" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (34,'Ejecución de proyectos de: Capex, R&amp;M y TIS','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (34,'Ejecución de proyectos de: Capex, R&amp;M y TIS','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4025,13 +4050,13 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-      <c r="AM36" t="str">
+      <c r="AO36" t="str">
         <f t="shared" si="0"/>
         <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (35,'Actualización y modernización de activos inmobiliarios','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos
-Inversiones','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+Inversiones','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4089,12 +4114,12 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-      <c r="AM37" t="str">
+      <c r="AO37" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (36,'Gestión de copropiedades ','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (36,'Gestión de copropiedades ','Planes Maestros','Gestión del portafolio inmobiliario','NA','','NA','Gestión de activos','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4162,12 +4187,12 @@
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
-      <c r="AM38" t="str">
+      <c r="AO38" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (37,'Elaboración de presupuesto para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Planeación financiera','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (37,'Elaboración de presupuesto para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Planeación financiera','','','','',0,'',1,'SF3-OT5-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4243,12 +4268,12 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
-      <c r="AM39" t="str">
+      <c r="AO39" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (38,'Gestión de impuestos para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','TO BE - Preliminar','','Implementación','Gestión de activos','impuestosBackoficePlaneación financiera','5','Soporte','Si',0,'',1,'MD4-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (38,'Gestión de impuestos para activos inmobiliarios','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','TO BE - Preliminar','','Implementación','Gestión de activos','impuestosBackoficePlaneación financiera','5','Soporte','Si',0,'',1,'MD4-OT10','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4316,12 +4341,12 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
-      <c r="AM40" t="str">
+      <c r="AO40" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (39,'Planeación y gestión de avaluos comerciales para activos inmobiales','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Planeación financiera','','','','',0,'',1,'OT5-OT9-OT10','',1,0.5,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (39,'Planeación y gestión de avaluos comerciales para activos inmobiales','Gestión financiera de activos inmobiliarios','Gestión del portafolio inmobiliario','NA','','NA','Planeación financiera','','','','',0,'',1,'OT5-OT9-OT10','',1,0.5,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4387,14 +4412,14 @@
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
-      <c r="AM41" t="str">
+      <c r="AO41" t="str">
         <f t="shared" si="0"/>
         <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (40,'Comité de seguimiento inmobiliario','Gestión inmobiliaria del portafolio','Gestión del portafolio inmobiliario','NA','','NA','Comercial
 Gestión de activos
-Planeación financiera','','','','',0,'',1,'','',1,1,1,1,0.7,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+Planeación financiera','','','','',0,'',1,'','',1,1,1,1,0.7,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4462,12 +4487,12 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-      <c r="AM42" t="str">
+      <c r="AO42" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (41,'Emisiones de capital privado','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.8,'R3-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (41,'Emisiones de capital privado','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.8,'R3-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4535,12 +4560,12 @@
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
-      <c r="AM43" t="str">
+      <c r="AO43" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (42,'Emisiones de capital público','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.8,'R3-P1',0,'','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (42,'Emisiones de capital público','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.8,'R3-P1',0,'','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4608,12 +4633,12 @@
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5"/>
-      <c r="AM44" t="str">
+      <c r="AO44" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (43,'Seguimiento y control a emisiones realizadas','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.7,'R3',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (43,'Seguimiento y control a emisiones realizadas','Gestión de emisiones','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0.7,'R3',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4689,12 +4714,12 @@
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
-      <c r="AM45" t="str">
+      <c r="AO45" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (44,'Prospección de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','Inversionistas','Comunicaciones','2','Core','No',0.7,'R3',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (44,'Prospección de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','Inversionistas','Comunicaciones','2','Core','No',0.7,'R3',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4770,12 +4795,12 @@
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
-      <c r="AM46" t="str">
+      <c r="AO46" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (45,'Atención de solicitudes de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','Inversionistas','Pei AM, Fiducoldex','8','Core','No',0.7,'R3',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (45,'Atención de solicitudes de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','TO BE - Preliminar','','TO BE - Actualizado','Inversionistas','Pei AM, Fiducoldex','8','Core','No',0.7,'R3',0,'','',1,1,1,1,0.91,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4843,12 +4868,12 @@
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5"/>
-      <c r="AM47" t="str">
+      <c r="AO47" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (46,'Fidelización de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','NA','','NA','Inversionistas','','','','',0.7,'R3',0,'','',1,0.8,0.9,0.9,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (46,'Fidelización de inversionistas','Gestión de relación con el inversionista','Gestión de estructura de capital de los vehículos','NA','','NA','Inversionistas','','','','',0.7,'R3',0,'','',1,0.8,0.9,0.9,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4914,12 +4939,12 @@
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
-      <c r="AM48" t="str">
+      <c r="AO48" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (47,'Cupos de crédito','Gestión de endeudamiento financiero','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (47,'Cupos de crédito','Gestión de endeudamiento financiero','Gestión de estructura de capital de los vehículos','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4987,12 +5012,12 @@
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
       <c r="AK49" s="5"/>
-      <c r="AM49" t="str">
+      <c r="AO49" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (48,'Formulación y planeación de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (48,'Formulación y planeación de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5060,12 +5085,12 @@
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
-      <c r="AM50" t="str">
+      <c r="AO50" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (49,'Gestión y seguimiento de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (49,'Gestión y seguimiento de iniciativas de sostenibilidad','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>61</v>
       </c>
@@ -5133,12 +5158,12 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="5"/>
-      <c r="AM51" t="str">
+      <c r="AO51" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (61,'Cierre y materialización operativa de las iniciativas','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (61,'Cierre y materialización operativa de las iniciativas','Gestión de asuntos materiales','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>62</v>
       </c>
@@ -5205,12 +5230,12 @@
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5"/>
-      <c r="AM52" t="str">
+      <c r="AO52" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (62,'Gestión regalutoria','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (62,'Gestión regalutoria','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>63</v>
       </c>
@@ -5278,12 +5303,12 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5"/>
-      <c r="AM53" t="str">
+      <c r="AO53" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (63,'Gestión legal','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (63,'Gestión legal','Gestión de asuntos corporativos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -5351,12 +5376,12 @@
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5"/>
-      <c r="AM54" t="str">
+      <c r="AO54" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (64,'Gestión de riesgos estratégicos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Riesgos','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (64,'Gestión de riesgos estratégicos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Riesgos','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>65</v>
       </c>
@@ -5424,12 +5449,12 @@
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
-      <c r="AM55" t="str">
+      <c r="AO55" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (65,'Gestión de riesgos operativos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Riesgos','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (65,'Gestión de riesgos operativos','Gestión de riesgos','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Riesgos','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>66</v>
       </c>
@@ -5497,12 +5522,12 @@
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
       <c r="AK56" s="5"/>
-      <c r="AM56" t="str">
+      <c r="AO56" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (66,'Modelo de relacionamiento con aliados estratégicos','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (66,'Modelo de relacionamiento con aliados estratégicos','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>67</v>
       </c>
@@ -5570,12 +5595,12 @@
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
       <c r="AK57" s="5"/>
-      <c r="AM57" t="str">
+      <c r="AO57" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (67,'SAGRILAFT','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (67,'SAGRILAFT','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>68</v>
       </c>
@@ -5643,12 +5668,12 @@
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
       <c r="AK58" s="5"/>
-      <c r="AM58" t="str">
+      <c r="AO58" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (68,'Programa de Transparencia y Ética empresarial','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (68,'Programa de Transparencia y Ética empresarial','Gestión de cumplimiento','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.4,0.4,0.82,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>69</v>
       </c>
@@ -5716,12 +5741,12 @@
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
       <c r="AK59" s="5"/>
-      <c r="AM59" t="str">
+      <c r="AO59" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (69,'Aditoría de procesos','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (69,'Aditoría de procesos','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>70</v>
       </c>
@@ -5789,12 +5814,12 @@
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
       <c r="AK60" s="5"/>
-      <c r="AM60" t="str">
+      <c r="AO60" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (70,'Aditoría de Operadores Especializados y Administradores','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (70,'Aditoría de Operadores Especializados y Administradores','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>71</v>
       </c>
@@ -5862,12 +5887,12 @@
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
-      <c r="AM61" t="str">
+      <c r="AO61" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (71,'Auditoría de gestión de cumplimiento','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (71,'Auditoría de gestión de cumplimiento','Gestión de auditoria','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Auditoria','','','','',0.7,'S1',0,'','',1,1,0.5,0.5,0.81,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>72</v>
       </c>
@@ -5935,12 +5960,12 @@
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="5"/>
-      <c r="AM62" t="str">
+      <c r="AO62" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (72,'Planeación, ejecución y conclusiones de comités de los vehículos administrados','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Presidencia','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (72,'Planeación, ejecución y conclusiones de comités de los vehículos administrados','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Presidencia','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>73</v>
       </c>
@@ -6008,12 +6033,12 @@
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5"/>
       <c r="AK63" s="5"/>
-      <c r="AM63" t="str">
+      <c r="AO63" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (73,'Planeación, ejecución y conclusiones de comités corporativos','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Pei AM','','','','',0.7,'S1',0,'','',1,1,0.2,0.2,0.75,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (73,'Planeación, ejecución y conclusiones de comités corporativos','Comítes','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Pei AM','','','','',0.7,'S1',0,'','',1,1,0.2,0.2,0.75,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>74</v>
       </c>
@@ -6081,12 +6106,12 @@
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
       <c r="AK64" s="5"/>
-      <c r="AM64" t="str">
+      <c r="AO64" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (74,'Gestión de políticas y normas corporativas','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (74,'Gestión de políticas y normas corporativas','Buen gobierno y ética empresarial','Gestión del modelo corporativo de sostenibilidad','NA','','NA','Legal','','','','',0.8,'S1-P1',0,'','',1,1,0.2,0.2,0.78,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>75</v>
       </c>
@@ -6152,12 +6177,12 @@
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5"/>
-      <c r="AM65" t="str">
+      <c r="AO65" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (75,'Formulacion y planeación de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (75,'Formulacion y planeación de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>76</v>
       </c>
@@ -6223,12 +6248,12 @@
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5"/>
-      <c r="AM66" t="str">
+      <c r="AO66" t="str">
         <f t="shared" si="0"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (76,'Ejecución y seguimiento de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (76,'Ejecución y seguimiento de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>77</v>
       </c>
@@ -6294,12 +6319,12 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5"/>
-      <c r="AM67" t="str">
-        <f t="shared" ref="AM67:AM97" si="1">CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A67,TEXT(",'",0),B67,TEXT("','",0),C67,TEXT("','",0),D67,TEXT("','",0),E67,TEXT("','",0),F67,TEXT("','",0),G67,TEXT("','",0),I67,TEXT("','",0),J67,TEXT("','",0),K67,TEXT("','",0),L67,TEXT("','",0),M67,TEXT("',",0),N67,TEXT(",'",0),O67,TEXT("',",0),P67,TEXT(",'",0),Q67,TEXT("','",0),R67,TEXT("',",0),S67,TEXT(",",0),T67,TEXT(",",0),U67,TEXT(",",0),V67,TEXT(",",0),W67,TEXT(",",0),AB67,TEXT("null,",0),AC67,TEXT("null,",0),AD67,TEXT("null,",0),AE67,TEXT("null,'",0),AF67,TEXT("','",0),X67,TEXT("','",0),H67,TEXT("','",0),AA67,TEXT("','",0),Z67,TEXT("','",0),Y67,TEXT("','",0),AG67,TEXT("','",0),AH67,TEXT("','",0),AI67,TEXT("','",0),AJ67,TEXT("',null",0),AK67,TEXT(")"").execute();",0))</f>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (77,'Evaluación y cierre de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO67" t="str">
+        <f t="shared" ref="AO67:AO105" si="1">CONCATENATE(TEXT("SA.query(",0),TEXT("""Banco_de_componentes"",""insert into bc_inventario_procesos values (",0),A67,TEXT(",'",0),B67,TEXT("','",0),C67,TEXT("','",0),D67,TEXT("','",0),E67,TEXT("','",0),F67,TEXT("','",0),G67,TEXT("','",0),I67,TEXT("','",0),J67,TEXT("','",0),K67,TEXT("','",0),L67,TEXT("','",0),M67,TEXT("',",0),N67,TEXT(",'",0),O67,TEXT("',",0),P67,TEXT(",'",0),Q67,TEXT("','",0),R67,TEXT("',",0),S67,TEXT(",",0),T67,TEXT(",",0),U67,TEXT(",",0),V67,TEXT(",",0),W67,TEXT(",",0),AB67,TEXT("null,",0),AC67,TEXT("null,",0),AD67,TEXT("null,",0),AE67,TEXT("null,'",0),AF67,TEXT("','",0),X67,TEXT("','",0),H67,TEXT("','",0),AA67,TEXT("','",0),Z67,TEXT("','",0),Y67,TEXT("','",0),AG67,TEXT("','",0),AH67,TEXT("','",0),AI67,TEXT("','",0),AJ67,TEXT("',null",0),AK67,TEXT(",null",0),AL67,TEXT(",null",0),AM67,TEXT(")"").execute();",0))</f>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (77,'Evaluación y cierre de iniciativas estratégicas','Horizonte estratégico','Gestión corporativa','NA','','NA','Estrategia y nuevos negocios','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>78</v>
       </c>
@@ -6365,12 +6390,12 @@
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5"/>
-      <c r="AM68" t="str">
+      <c r="AO68" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (78,'Planeación, programación y ejecución de capacitaciones a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (78,'Planeación, programación y ejecución de capacitaciones a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>79</v>
       </c>
@@ -6436,12 +6461,12 @@
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
       <c r="AK69" s="5"/>
-      <c r="AM69" t="str">
+      <c r="AO69" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (79,'Diseño, publicación, ejecución y ajustes al Programa de bienestar','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',1,1,0.2,0.2,0.54,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (79,'Diseño, publicación, ejecución y ajustes al Programa de bienestar','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',1,1,0.2,0.2,0.54,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>80</v>
       </c>
@@ -6515,12 +6540,12 @@
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
-      <c r="AM70" t="str">
+      <c r="AO70" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (80,'Reclutamiento, selección, contratación e inducción a trabajadores Pei AM','Gestión del talento','Gestión corporativa','AS IS','','TO BE - Preliminar','Talento Humano','Pei AM','','Soporte','No',0.9,'P1-G1-G2',0,'','',1,1,0.8,0.8,0.93,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (80,'Reclutamiento, selección, contratación e inducción a trabajadores Pei AM','Gestión del talento','Gestión corporativa','AS IS','','TO BE - Preliminar','Talento Humano','Pei AM','','Soporte','No',0.9,'P1-G1-G2',0,'','',1,1,0.8,0.8,0.93,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>81</v>
       </c>
@@ -6588,12 +6613,12 @@
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
-      <c r="AM71" t="str">
+      <c r="AO71" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (81,'Desvinculación de trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'P1',0,'','',1,0.3,0.5,0.5,0.635,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (81,'Desvinculación de trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'P1',0,'','',1,0.3,0.5,0.5,0.635,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>82</v>
       </c>
@@ -6661,12 +6686,12 @@
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
       <c r="AK72" s="5"/>
-      <c r="AM72" t="str">
+      <c r="AO72" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (82,'Gestión de la compensación a trabajadores de Pei AM ','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.9,'P1-G1-G2',0,'','',1,1,0.6,0.6,0.89,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (82,'Gestión de la compensación a trabajadores de Pei AM ','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.9,'P1-G1-G2',0,'','',1,1,0.6,0.6,0.89,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>83</v>
       </c>
@@ -6734,12 +6759,12 @@
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
       <c r="AK73" s="5"/>
-      <c r="AM73" t="str">
+      <c r="AO73" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (83,'Liquidación y pago de nómina a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.8,'G1-G2',0,'','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (83,'Liquidación y pago de nómina a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.8,'G1-G2',0,'','',1,1,0.5,0.5,0.84,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>84</v>
       </c>
@@ -6807,12 +6832,12 @@
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="5"/>
-      <c r="AM74" t="str">
+      <c r="AO74" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (84,'Evalución de desempeño a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (84,'Evalución de desempeño a trabajadores de Pei AM','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G1',0,'','',1,1,0.3,0.3,0.77,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>85</v>
       </c>
@@ -6880,12 +6905,12 @@
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
-      <c r="AM75" t="str">
+      <c r="AO75" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (85,'Diseño, publicación, ejecución y ajustes al Plan carrera','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G1',0,'','',1,1,0.1,0.1,0.73,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (85,'Diseño, publicación, ejecución y ajustes al Plan carrera','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G1',0,'','',1,1,0.1,0.1,0.73,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>86</v>
       </c>
@@ -6953,12 +6978,12 @@
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
       <c r="AK76" s="5"/>
-      <c r="AM76" t="str">
+      <c r="AO76" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (86,'Diseño, publicación, ejecuión y ajustes al programa de sucección y altos potenciales','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G2',0,'','',1,1,0.1,0.1,0.73,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (86,'Diseño, publicación, ejecuión y ajustes al programa de sucección y altos potenciales','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0.7,'G2',0,'','',1,1,0.1,0.1,0.73,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>87</v>
       </c>
@@ -7024,12 +7049,12 @@
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
       <c r="AK77" s="5"/>
-      <c r="AM77" t="str">
+      <c r="AO77" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (87,'Planeación, ejecución y cierre de procesos de Seguridad y Salud en el Trabajo','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,0.5,0.3,0.3,0.31,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (87,'Planeación, ejecución y cierre de procesos de Seguridad y Salud en el Trabajo','Gestión del talento','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,0.5,0.3,0.3,0.31,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>88</v>
       </c>
@@ -7095,12 +7120,12 @@
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="5"/>
-      <c r="AM78" t="str">
+      <c r="AO78" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (88,'Preparación, recolección, analisis y presentación de resultados de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (88,'Preparación, recolección, analisis y presentación de resultados de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>89</v>
       </c>
@@ -7166,12 +7191,12 @@
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
       <c r="AK79" s="5"/>
-      <c r="AM79" t="str">
+      <c r="AO79" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (89,'Planeación, ejecución y cierre de iniciativas de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (89,'Planeación, ejecución y cierre de iniciativas de cultura organizacional','Cultura Organizacional','Gestión corporativa','NA','','NA','Talento Humano','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>90</v>
       </c>
@@ -7229,12 +7254,12 @@
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
       <c r="AK80" s="5"/>
-      <c r="AM80" t="str">
+      <c r="AO80" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (90,'Infraestrcutura tecnológica','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (90,'Infraestrcutura tecnológica','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>91</v>
       </c>
@@ -7292,12 +7317,12 @@
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
       <c r="AK81" s="5"/>
-      <c r="AM81" t="str">
+      <c r="AO81" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (91,'Gestión de datos','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (91,'Gestión de datos','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>92</v>
       </c>
@@ -7355,12 +7380,12 @@
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
       <c r="AK82" s="5"/>
-      <c r="AM82" t="str">
+      <c r="AO82" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (92,'Gestión de aplicaciones','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (92,'Gestión de aplicaciones','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',,,,,0,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>93</v>
       </c>
@@ -7426,12 +7451,12 @@
       <c r="AI83" s="5"/>
       <c r="AJ83" s="5"/>
       <c r="AK83" s="5"/>
-      <c r="AM83" t="str">
+      <c r="AO83" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (93,'Formulación, planeación, ejecución seguimiento y cierre de iniciativas de Transformación Digital','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (93,'Formulación, planeación, ejecución seguimiento y cierre de iniciativas de Transformación Digital','Innovación Digital','Gestión corporativa','NA','','NA','Innovación Digital','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>94</v>
       </c>
@@ -7497,12 +7522,12 @@
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5"/>
-      <c r="AM84" t="str">
+      <c r="AO84" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (94,'Comunicaciones a grupos priorizados de Pei AM y Vehículos','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','Comunicaciones','','','','',0,'',0,'','',0.5,0.8,0.5,0.5,0.425,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (94,'Comunicaciones a grupos priorizados de Pei AM y Vehículos','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','Comunicaciones','','','','',0,'',0,'','',0.5,0.8,0.5,0.5,0.425,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>95</v>
       </c>
@@ -7568,12 +7593,12 @@
       <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
-      <c r="AM85" t="str">
+      <c r="AO85" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (95,'Planeación, ejecución y cierre de eventos a grupos priorizados','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','Comunicaciones','','','','',0,'',0,'','',0.5,0.8,0.5,0.5,0.425,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (95,'Planeación, ejecución y cierre de eventos a grupos priorizados','Contacto e información a grupos priorizados','Gestión corporativa','AS IS','','TO BE - Preliminar','Comunicaciones','','','','',0,'',0,'','',0.5,0.8,0.5,0.5,0.425,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>96</v>
       </c>
@@ -7639,12 +7664,12 @@
       <c r="AI86" s="5"/>
       <c r="AJ86" s="5"/>
       <c r="AK86" s="5"/>
-      <c r="AM86" t="str">
+      <c r="AO86" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (96,'Creación, actualización o mejora de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','Procesos','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (96,'Creación, actualización o mejora de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','Procesos','','','','',0,'',0,'','',0.5,1,0.5,0.5,0.475,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>97</v>
       </c>
@@ -7710,12 +7735,12 @@
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
       <c r="AK87" s="5"/>
-      <c r="AM87" t="str">
+      <c r="AO87" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (97,'Suspención de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','Procesos','','','','',0,'',0,'','',0.5,0.5,0.5,0.5,0.35,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (97,'Suspención de procesos de Pei AM','Gestión de Procesos','Gestión corporativa','AS IS','','TO BE - Preliminar','Procesos','','','','',0,'',0,'','',0.5,0.5,0.5,0.5,0.35,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>98</v>
       </c>
@@ -7781,12 +7806,12 @@
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
       <c r="AK88" s="5"/>
-      <c r="AM88" t="str">
+      <c r="AO88" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (98,'Actualización y soporte a la herramienta de BPMs de Pei AM','Gestión de Procesos','Gestión corporativa','NA','','NA','Procesos','','','','',0,'',0,'','',0.5,0.7,0.5,0.5,0.4,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (98,'Actualización y soporte a la herramienta de BPMs de Pei AM','Gestión de Procesos','Gestión corporativa','NA','','NA','Procesos','','','','',0,'',0,'','',0.5,0.7,0.5,0.5,0.4,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>99</v>
       </c>
@@ -7852,12 +7877,12 @@
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
       <c r="AK89" s="5"/>
-      <c r="AM89" t="str">
+      <c r="AO89" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (99,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (99,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>100</v>
       </c>
@@ -7923,12 +7948,12 @@
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5"/>
-      <c r="AM90" t="str">
+      <c r="AO90" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (100,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (100,'Análisis, elaboración y aprobación de preseupuesto para Pei AM','Gestión de la planeación financiera','Gestión corporativa','NA','','NA','Planeación financiera','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>101</v>
       </c>
@@ -7996,12 +8021,12 @@
       <c r="AI91" s="5"/>
       <c r="AJ91" s="5"/>
       <c r="AK91" s="5"/>
-      <c r="AM91" t="str">
+      <c r="AO91" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (101,'Gestión de proveedores','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (101,'Gestión de proveedores','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>102</v>
       </c>
@@ -8069,12 +8094,12 @@
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
       <c r="AK92" s="5"/>
-      <c r="AM92" t="str">
+      <c r="AO92" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (102,'Gestión de contratación y compras','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (102,'Gestión de contratación y compras','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>103</v>
       </c>
@@ -8142,12 +8167,12 @@
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
       <c r="AK93" s="5"/>
-      <c r="AM93" t="str">
+      <c r="AO93" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (103,'Actualización y soporte a la herramienta de proveedores de Pei AM','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (103,'Actualización y soporte a la herramienta de proveedores de Pei AM','Contratación y compras','Gestión corporativa','NA','','NA','Contratación y compras','','','','',0.9,'O1 -O2 - P1',0,'','',1,1,0.5,0.5,0.87,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>104</v>
       </c>
@@ -8213,12 +8238,12 @@
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5"/>
-      <c r="AM94" t="str">
+      <c r="AO94" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (104,'Cierre contable','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (104,'Cierre contable','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>105</v>
       </c>
@@ -8284,12 +8309,12 @@
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
       <c r="AK95" s="5"/>
-      <c r="AM95" t="str">
+      <c r="AO95" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (105,'Cuentas por cobrar','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (105,'Cuentas por cobrar','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>106</v>
       </c>
@@ -8355,12 +8380,12 @@
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
       <c r="AK96" s="5"/>
-      <c r="AM96" t="str">
+      <c r="AO96" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (106,'Cuentas por pagar','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
-      </c>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (106,'Cuentas por pagar','Gestión contable','Gestión corporativa','NA','','NA','Contabilidad','','','','',0,'',0,'','',1,1,0.5,0.5,0.6,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>107</v>
       </c>
@@ -8428,12 +8453,597 @@
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
       <c r="AK97" s="5"/>
-      <c r="AM97" t="str">
+      <c r="AO97" t="str">
         <f t="shared" si="1"/>
-        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (107,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null)").execute();</v>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (107,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>108</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5">
+        <v>1</v>
+      </c>
+      <c r="T98" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U98" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V98" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W98" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5"/>
+      <c r="AO98" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (108,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>109</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5">
+        <v>1</v>
+      </c>
+      <c r="T99" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U99" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V99" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W99" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AO99" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (109,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>110</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5">
+        <v>1</v>
+      </c>
+      <c r="T100" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U100" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V100" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W100" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AO100" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (110,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>111</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5">
+        <v>1</v>
+      </c>
+      <c r="T101" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U101" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V101" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W101" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AO101" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (111,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>112</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5">
+        <v>1</v>
+      </c>
+      <c r="T102" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U102" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V102" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W102" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AO102" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (112,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>113</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5">
+        <v>1</v>
+      </c>
+      <c r="T103" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U103" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V103" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W103" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AO103" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (113,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>114</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5">
+        <v>1</v>
+      </c>
+      <c r="T104" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U104" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V104" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W104" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AO104" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (114,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>115</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5">
+        <v>1</v>
+      </c>
+      <c r="T105" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U105" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V105" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W105" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="5"/>
+      <c r="AO105" t="str">
+        <f t="shared" si="1"/>
+        <v>SA.query("Banco_de_componentes","insert into bc_inventario_procesos values (115,'Crear, actualizar o eliminar documentos del repositorio de Pei AM','Gestión documental','Gestión corporativa','NA','','NA','Backoffice','','','','',0.7,'P1',0,'','',1,0.5,0.2,0.2,0.625,null,null,null,null,'','','','','','','','','','',null,null,null)").execute();</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>